--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,42 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>装备副本卷</t>
+  </si>
+  <si>
+    <t>BOSS挑战卷</t>
+  </si>
+  <si>
+    <t>凤凰之羽</t>
+  </si>
+  <si>
+    <t>专属自选包</t>
+  </si>
+  <si>
+    <t>8介技能自选包</t>
+  </si>
+  <si>
+    <t>9介技能自选包</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>战神时装包</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>恶魔时装包</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>幽灵时装包</t>
   </si>
   <si>
     <t>书页</t>
@@ -702,8 +738,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1058,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I11"/>
+  <dimension ref="C3:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1073,74 +1110,75 @@
     <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
     <col min="10" max="16382" width="9" style="1"/>
+    <col min="16383" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1148,128 +1186,230 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>999999</v>
+        <v>2688</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:9">
       <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>388</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:9">
       <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:9">
       <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H9" s="1">
         <v>4</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:9">
       <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H10" s="1">
         <v>4</v>
       </c>
       <c r="I10" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:9">
       <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="1">
         <v>4</v>
       </c>
       <c r="I11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:9">
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
         <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:9">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:9">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:9">
+      <c r="C21" s="1">
+        <v>99</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>999999</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4006</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -35,12 +35,15 @@
     <t>ItemId</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Cost</t>
   </si>
   <si>
     <t>Max</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>TargetName</t>
   </si>
   <si>
@@ -62,40 +65,70 @@
     <t>1</t>
   </si>
   <si>
+    <t>兑换装备副本卷100个</t>
+  </si>
+  <si>
     <t>装备副本卷</t>
   </si>
   <si>
+    <t>兑换BOSS挑战卷10个</t>
+  </si>
+  <si>
     <t>BOSS挑战卷</t>
   </si>
   <si>
+    <t>兑换凤凰之羽10个</t>
+  </si>
+  <si>
     <t>凤凰之羽</t>
   </si>
   <si>
+    <t>兑换专属自选包1个</t>
+  </si>
+  <si>
     <t>专属自选包</t>
   </si>
   <si>
+    <t>兑换8介技能自选包3个</t>
+  </si>
+  <si>
     <t>8介技能自选包</t>
   </si>
   <si>
+    <t>兑换9介技能自选包3个</t>
+  </si>
+  <si>
     <t>9介技能自选包</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>兑换战神时装包10个</t>
+  </si>
+  <si>
     <t>战神时装包</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>兑换恶魔时装包10个</t>
+  </si>
+  <si>
     <t>恶魔时装包</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>兑换幽灵时装包10个</t>
+  </si>
+  <si>
     <t>幽灵时装包</t>
+  </si>
+  <si>
+    <t>兑换书页1个</t>
   </si>
   <si>
     <t>书页</t>
@@ -738,9 +771,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1095,326 +1127,366 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I21"/>
+  <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
-    <col min="10" max="16382" width="9" style="1"/>
-    <col min="16383" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="3:9">
+    <row r="6" customHeight="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>2688</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
         <v>9</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>4003</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:9">
+    <row r="7" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>388</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>4004</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:9">
+    <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>188</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>4008</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:9">
+    <row r="9" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:9">
+    <row r="10" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:9">
+    <row r="11" customHeight="1" spans="3:10">
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:9">
+    <row r="12" customHeight="1" spans="3:10">
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="1">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:9">
+    <row r="13" customHeight="1" spans="3:10">
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="1">
         <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:9">
+    <row r="14" customHeight="1" spans="3:10">
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>21</v>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="1">
         <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1">
         <v>4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:9">
+    <row r="21" customHeight="1" spans="3:10">
       <c r="C21" s="1">
         <v>99</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F21" s="1">
         <v>999999</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="1">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="1">
         <v>5</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>4006</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 D4 E4 F4 D5 E5 F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,D3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +56,9 @@
     <t>TargetId</t>
   </si>
   <si>
+    <t>TargetCount</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -62,70 +68,109 @@
     <t>4200</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>兑换装备副本卷100个</t>
+  </si>
+  <si>
+    <t>装备副本卷</t>
+  </si>
+  <si>
+    <t>兑换BOSS挑战卷10个</t>
+  </si>
+  <si>
+    <t>BOSS挑战卷</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>兑换凤凰之羽10个</t>
+  </si>
+  <si>
+    <t>凤凰之羽</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>兑换冰咆哮专属自选包1个</t>
+  </si>
+  <si>
+    <t>专属自选包</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>兑换8介技能自选包1个</t>
+  </si>
+  <si>
+    <t>8介技能自选包</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>兑换9介技能自选包1个</t>
+  </si>
+  <si>
+    <t>9介技能自选包</t>
+  </si>
+  <si>
+    <t>兑换战神时装包1个</t>
+  </si>
+  <si>
+    <t>战神时装包</t>
+  </si>
+  <si>
+    <t>兑换恶魔时装包1个</t>
+  </si>
+  <si>
+    <t>恶魔时装包</t>
+  </si>
+  <si>
+    <t>兑换幽灵时装包1个</t>
+  </si>
+  <si>
+    <t>幽灵时装包</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之力1个</t>
+  </si>
+  <si>
+    <t>龙之力</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之智1个</t>
+  </si>
+  <si>
+    <t>龙之智</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之秘1个</t>
+  </si>
+  <si>
+    <t>龙之秘</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>兑换四格碎片1000个</t>
+  </si>
+  <si>
+    <t>四格碎片</t>
+  </si>
+  <si>
+    <t>兑换图鉴碎片1000个</t>
+  </si>
+  <si>
+    <t>图鉴碎片</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>兑换装备副本卷100个</t>
-  </si>
-  <si>
-    <t>装备副本卷</t>
-  </si>
-  <si>
-    <t>兑换BOSS挑战卷10个</t>
-  </si>
-  <si>
-    <t>BOSS挑战卷</t>
-  </si>
-  <si>
-    <t>兑换凤凰之羽10个</t>
-  </si>
-  <si>
-    <t>凤凰之羽</t>
-  </si>
-  <si>
-    <t>兑换专属自选包1个</t>
-  </si>
-  <si>
-    <t>专属自选包</t>
-  </si>
-  <si>
-    <t>兑换8介技能自选包3个</t>
-  </si>
-  <si>
-    <t>8介技能自选包</t>
-  </si>
-  <si>
-    <t>兑换9介技能自选包3个</t>
-  </si>
-  <si>
-    <t>9介技能自选包</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>兑换战神时装包10个</t>
-  </si>
-  <si>
-    <t>战神时装包</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>兑换恶魔时装包10个</t>
-  </si>
-  <si>
-    <t>恶魔时装包</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>兑换幽灵时装包10个</t>
-  </si>
-  <si>
-    <t>幽灵时装包</t>
   </si>
   <si>
     <t>兑换书页1个</t>
@@ -1127,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J21"/>
+  <dimension ref="C1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1141,107 +1186,122 @@
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="1" customHeight="1" spans="12:12">
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:10">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:12">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
-        <v>2688</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1">
         <v>9</v>
@@ -1249,25 +1309,32 @@
       <c r="J6" s="1">
         <v>4003</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:10">
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L19" si="0">E6*F6</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:12">
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -1275,25 +1342,32 @@
       <c r="J7" s="1">
         <v>4004</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:10">
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:12">
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -1301,25 +1375,32 @@
       <c r="J8" s="1">
         <v>4008</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:10">
+      <c r="K8" s="1">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:12">
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -1327,25 +1408,32 @@
       <c r="J9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:10">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:12">
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
@@ -1353,25 +1441,32 @@
       <c r="J10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:10">
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:12">
       <c r="C11" s="1">
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
@@ -1379,25 +1474,32 @@
       <c r="J11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:10">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:12">
       <c r="C12" s="1">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
@@ -1405,25 +1507,32 @@
       <c r="J12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:10">
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:12">
       <c r="C13" s="1">
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1">
         <v>4</v>
@@ -1431,25 +1540,32 @@
       <c r="J13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:10">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="1">
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
@@ -1457,31 +1573,206 @@
       <c r="J14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:10">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:12">
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="1">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1999995</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:12">
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1999996</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:12">
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1999997</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:12">
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4007</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:12">
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="1">
         <v>99</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1">
         <v>999999</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1">
         <v>5</v>
       </c>
       <c r="J21" s="1">
         <v>4006</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -68,7 +68,7 @@
     <t>4200</t>
   </si>
   <si>
-    <t>25</t>
+    <t>50</t>
   </si>
   <si>
     <t>兑换装备副本卷100个</t>
@@ -83,7 +83,7 @@
     <t>BOSS挑战卷</t>
   </si>
   <si>
-    <t>50</t>
+    <t>100</t>
   </si>
   <si>
     <t>兑换凤凰之羽10个</t>
@@ -92,7 +92,16 @@
     <t>凤凰之羽</t>
   </si>
   <si>
-    <t>500</t>
+    <t>300</t>
+  </si>
+  <si>
+    <t>兑换专属之心10个</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>兑换冰咆哮专属自选包1个</t>
@@ -101,24 +110,30 @@
     <t>专属自选包</t>
   </si>
   <si>
+    <t>兑换攻略专属自选包1个</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>兑换8介技能自选包1个</t>
+  </si>
+  <si>
+    <t>8阶技能自选包</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>兑换9介技能自选包1个</t>
+  </si>
+  <si>
+    <t>9阶技能自选包</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>兑换8介技能自选包1个</t>
-  </si>
-  <si>
-    <t>8介技能自选包</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>兑换9介技能自选包1个</t>
-  </si>
-  <si>
-    <t>9介技能自选包</t>
-  </si>
-  <si>
     <t>兑换战神时装包1个</t>
   </si>
   <si>
@@ -153,9 +168,6 @@
   </si>
   <si>
     <t>龙之秘</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
   <si>
     <t>兑换四格碎片1000个</t>
@@ -1172,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L21"/>
+  <dimension ref="C1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1313,13 +1325,13 @@
         <v>100</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:L19" si="0">E6*F6</f>
-        <v>750</v>
+        <f t="shared" ref="L6:L11" si="0">E6*F6</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:12">
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -1347,12 +1359,12 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:12">
       <c r="C8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
@@ -1380,12 +1392,12 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
       <c r="C9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -1394,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -1403,22 +1415,22 @@
         <v>23</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>7</v>
+        <v>4010</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:12">
       <c r="C10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
@@ -1427,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
@@ -1439,94 +1451,94 @@
         <v>4</v>
       </c>
       <c r="J10" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:12">
       <c r="C11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
       <c r="J11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:12">
       <c r="C12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>1250</v>
+        <f t="shared" ref="L12:L21" si="1">E12*F12</f>
+        <v>600</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:12">
       <c r="C13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -1538,118 +1550,118 @@
         <v>4</v>
       </c>
       <c r="J13" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
       </c>
       <c r="J14" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:12">
       <c r="C15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
         <v>11</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1999995</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:12">
       <c r="C16" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1">
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1">
-        <v>1999996</v>
+        <v>12</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:12">
       <c r="C17" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
@@ -1661,34 +1673,34 @@
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I17" s="1">
         <v>11</v>
       </c>
       <c r="J17" s="1">
-        <v>1999997</v>
+        <v>1999995</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:12">
       <c r="C18" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1">
         <v>10</v>
@@ -1700,28 +1712,28 @@
         <v>44</v>
       </c>
       <c r="I18" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1">
-        <v>4007</v>
+        <v>1999996</v>
       </c>
       <c r="K18" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:12">
       <c r="C19" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1">
         <v>10</v>
@@ -1733,45 +1745,111 @@
         <v>46</v>
       </c>
       <c r="I19" s="1">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1999997</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:12">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="1">
-        <v>4101</v>
-      </c>
-      <c r="K19" s="1">
-        <v>10</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:11">
+      <c r="J20" s="1">
+        <v>4007</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:12">
       <c r="C21" s="1">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1">
-        <v>999999</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1">
         <v>5</v>
       </c>
       <c r="J21" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:11">
+      <c r="C23" s="1">
+        <v>99</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1">
+        <v>999999</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
         <v>4006</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K23" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -101,6 +101,66 @@
     <t>专属之心</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>兑换战神时装包1个</t>
+  </si>
+  <si>
+    <t>战神时装包</t>
+  </si>
+  <si>
+    <t>兑换恶魔时装包1个</t>
+  </si>
+  <si>
+    <t>恶魔时装包</t>
+  </si>
+  <si>
+    <t>兑换幽灵时装包1个</t>
+  </si>
+  <si>
+    <t>幽灵时装包</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之力1个</t>
+  </si>
+  <si>
+    <t>龙之力</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之智1个</t>
+  </si>
+  <si>
+    <t>龙之智</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之秘1个</t>
+  </si>
+  <si>
+    <t>龙之秘</t>
+  </si>
+  <si>
+    <t>兑换四格碎片1000个</t>
+  </si>
+  <si>
+    <t>四格碎片</t>
+  </si>
+  <si>
+    <t>兑换图鉴碎片1000个</t>
+  </si>
+  <si>
+    <t>图鉴碎片</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>兑换书页1个</t>
+  </si>
+  <si>
+    <t>书页</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
@@ -129,66 +189,6 @@
   </si>
   <si>
     <t>9阶技能自选包</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>兑换战神时装包1个</t>
-  </si>
-  <si>
-    <t>战神时装包</t>
-  </si>
-  <si>
-    <t>兑换恶魔时装包1个</t>
-  </si>
-  <si>
-    <t>恶魔时装包</t>
-  </si>
-  <si>
-    <t>兑换幽灵时装包1个</t>
-  </si>
-  <si>
-    <t>幽灵时装包</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之力1个</t>
-  </si>
-  <si>
-    <t>龙之力</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之智1个</t>
-  </si>
-  <si>
-    <t>龙之智</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之秘1个</t>
-  </si>
-  <si>
-    <t>龙之秘</t>
-  </si>
-  <si>
-    <t>兑换四格碎片1000个</t>
-  </si>
-  <si>
-    <t>四格碎片</t>
-  </si>
-  <si>
-    <t>兑换图鉴碎片1000个</t>
-  </si>
-  <si>
-    <t>图鉴碎片</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>兑换书页1个</t>
-  </si>
-  <si>
-    <t>书页</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="6" customHeight="1" spans="3:12">
       <c r="C6" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
@@ -1307,7 +1307,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -1325,13 +1325,13 @@
         <v>100</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:L11" si="0">E6*F6</f>
-        <v>1500</v>
+        <f>E6*F6</f>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:12">
       <c r="C7" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -1340,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
@@ -1358,499 +1358,523 @@
         <v>10</v>
       </c>
       <c r="L7" s="1">
+        <f>E7*F7</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:12">
+      <c r="C8" s="1">
+        <v>102</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4008</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1">
+        <f>E8*F8</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:12">
+      <c r="C9" s="1">
+        <v>103</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <f>E9*F9</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:12">
+      <c r="C10" s="1">
+        <v>109</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L17" si="0">E10*F10</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:12">
+      <c r="C11" s="1">
+        <v>110</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:12">
+      <c r="C12" s="1">
+        <v>111</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:12">
+      <c r="C13" s="1">
+        <v>112</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1999995</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:12">
+      <c r="C14" s="1">
+        <v>113</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1999996</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:12">
+      <c r="C15" s="1">
+        <v>114</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1999997</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:12">
+      <c r="C16" s="1">
+        <v>115</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4007</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:12">
+      <c r="C17" s="1">
+        <v>116</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:12">
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4008</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:12">
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K9" s="1">
-        <v>10</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:12">
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1">
-        <v>13</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:12">
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:12">
-      <c r="C12" s="1">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1">
-        <v>8</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" ref="L12:L21" si="1">E12*F12</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:12">
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="1">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1">
-        <v>9</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:12">
-      <c r="C14" s="1">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="1">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1">
-        <v>10</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:12">
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>11</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:12">
-      <c r="C16" s="1">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>12</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:12">
-      <c r="C17" s="1">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="1">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1999995</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:12">
+    <row r="18" customHeight="1" spans="3:11">
       <c r="C18" s="1">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
+        <v>9999</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I18" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1">
-        <v>1999996</v>
+        <v>4006</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:12">
-      <c r="C19" s="1">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="1">
-        <v>11</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1999997</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:12">
-      <c r="C20" s="1">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="1">
+    </row>
+    <row r="21" customHeight="1" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>5</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4007</v>
-      </c>
-      <c r="K20" s="1">
-        <v>10</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:12">
-      <c r="C21" s="1">
-        <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
         <v>13</v>
       </c>
-      <c r="F21" s="1">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1">
-        <v>5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4101</v>
-      </c>
       <c r="K21" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:11">
+        <f>E21*F21</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <f>E22*F22</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C23" s="1">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <f>E23*F23</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="1">
-        <v>999999</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="1">
-        <v>5</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4006</v>
-      </c>
-      <c r="K23" s="1">
-        <v>5</v>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>9</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <f>E24*F24</f>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -152,10 +152,7 @@
     <t>图鉴碎片</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>兑换书页1个</t>
+    <t>兑换书页100个</t>
   </si>
   <si>
     <t>书页</t>
@@ -1187,7 +1184,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1457,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L17" si="0">E10*F10</f>
+        <f t="shared" ref="L10:L18" si="0">E10*F10</f>
         <v>750</v>
       </c>
     </row>
@@ -1700,16 +1697,16 @@
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4999</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I18" s="1">
         <v>5</v>
@@ -1718,7 +1715,7 @@
         <v>4006</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:12">
@@ -1735,16 +1732,16 @@
         <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I21" s="1">
         <v>4</v>
@@ -1774,16 +1771,16 @@
         <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -1813,16 +1810,16 @@
         <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I23" s="1">
         <v>4</v>
@@ -1852,16 +1849,16 @@
         <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -68,7 +68,7 @@
     <t>4200</t>
   </si>
   <si>
-    <t>50</t>
+    <t>100</t>
   </si>
   <si>
     <t>兑换装备副本卷100个</t>
@@ -83,7 +83,7 @@
     <t>BOSS挑战卷</t>
   </si>
   <si>
-    <t>100</t>
+    <t>200</t>
   </si>
   <si>
     <t>兑换凤凰之羽10个</t>
@@ -92,18 +92,18 @@
     <t>凤凰之羽</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>兑换专属之心10个</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
-    <t>兑换专属之心10个</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>兑换战神时装包1个</t>
   </si>
   <si>
@@ -152,40 +152,40 @@
     <t>图鉴碎片</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>兑换冰咆哮专属自选包1个</t>
+  </si>
+  <si>
+    <t>专属自选包</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>兑换8介技能自选包1个</t>
+  </si>
+  <si>
+    <t>8阶技能自选包</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>兑换9介技能自选包1个</t>
+  </si>
+  <si>
+    <t>9阶技能自选包</t>
+  </si>
+  <si>
     <t>兑换书页100个</t>
   </si>
   <si>
     <t>书页</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>兑换冰咆哮专属自选包1个</t>
-  </si>
-  <si>
-    <t>专属自选包</t>
-  </si>
-  <si>
     <t>兑换攻略专属自选包1个</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>兑换8介技能自选包1个</t>
-  </si>
-  <si>
-    <t>8阶技能自选包</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>兑换9介技能自选包1个</t>
-  </si>
-  <si>
-    <t>9阶技能自选包</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="L6" s="1">
         <f>E6*F6</f>
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:12">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="L7" s="1">
         <f>E7*F7</f>
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:12">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="L8" s="1">
         <f>E8*F8</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="L9" s="1">
         <f>E9*F9</f>
-        <v>900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:12">
@@ -1454,8 +1454,8 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L18" si="0">E10*F10</f>
-        <v>750</v>
+        <f t="shared" ref="L10:L20" si="0">E10*F10</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:12">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:12">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:12">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:12">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:12">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:12">
@@ -1631,10 +1631,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>37</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:12">
@@ -1664,10 +1664,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>39</v>
@@ -1686,192 +1686,174 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:12">
       <c r="C18" s="1">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1">
-        <v>4999</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1">
-        <v>4006</v>
+        <v>13</v>
       </c>
       <c r="K18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:12">
+      <c r="C19" s="1">
+        <v>118</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:12">
+      <c r="C20" s="1">
+        <v>119</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="1">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4999</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4006</v>
+      </c>
+      <c r="K21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="1">
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>7</v>
+      </c>
+      <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>13</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <f>E21*F21</f>
+      <c r="L29" s="1">
+        <f>E29*F29</f>
         <v>1000</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="1">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>7</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
-        <f>E22*F22</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="1">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>8</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
-        <f>E23*F23</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="1">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>9</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
-        <f>E24*F24</f>
-        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>ItemId</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>4200</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -122,6 +116,27 @@
     <t>幽灵时装包</t>
   </si>
   <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>兑换圣战时装包1个</t>
+  </si>
+  <si>
+    <t>圣战时装包</t>
+  </si>
+  <si>
+    <t>兑换法神时装包1个</t>
+  </si>
+  <si>
+    <t>法神时装包</t>
+  </si>
+  <si>
+    <t>兑换天尊时装包1个</t>
+  </si>
+  <si>
+    <t>天尊时装包</t>
+  </si>
+  <si>
     <t>兑换图鉴龙之力1个</t>
   </si>
   <si>
@@ -140,6 +155,18 @@
     <t>龙之秘</t>
   </si>
   <si>
+    <t>兑换图鉴龙之御1个</t>
+  </si>
+  <si>
+    <t>龙之御</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之血1个</t>
+  </si>
+  <si>
+    <t>龙之血</t>
+  </si>
+  <si>
     <t>兑换四格碎片1000个</t>
   </si>
   <si>
@@ -155,37 +182,34 @@
     <t>2000</t>
   </si>
   <si>
+    <t>兑换攻略专属自选包1个</t>
+  </si>
+  <si>
+    <t>专属自选包</t>
+  </si>
+  <si>
+    <t>兑换8介技能自选包1个</t>
+  </si>
+  <si>
+    <t>8阶技能自选包</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>兑换9介技能自选包1个</t>
+  </si>
+  <si>
+    <t>9阶技能自选包</t>
+  </si>
+  <si>
+    <t>兑换书页100个</t>
+  </si>
+  <si>
+    <t>书页</t>
+  </si>
+  <si>
     <t>兑换冰咆哮专属自选包1个</t>
-  </si>
-  <si>
-    <t>专属自选包</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>兑换8介技能自选包1个</t>
-  </si>
-  <si>
-    <t>8阶技能自选包</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>兑换9介技能自选包1个</t>
-  </si>
-  <si>
-    <t>9阶技能自选包</t>
-  </si>
-  <si>
-    <t>兑换书页100个</t>
-  </si>
-  <si>
-    <t>书页</t>
-  </si>
-  <si>
-    <t>兑换攻略专属自选包1个</t>
   </si>
 </sst>
 </file>
@@ -198,7 +222,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +242,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -680,158 +711,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1181,32 +1213,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I13" sqref="I13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="12:12">
-      <c r="L1" s="1" t="s">
+    <row r="1" customHeight="1" spans="11:11">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1219,7 +1250,7 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1231,11 +1262,8 @@
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1248,7 +1276,7 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1260,605 +1288,734 @@
       <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="2" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:11">
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>100</v>
+      </c>
+      <c r="K6" s="1">
+        <f>D6*E6</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:11">
+      <c r="C7" s="1">
+        <v>201</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4004</v>
+      </c>
+      <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K7" s="1">
+        <f>D7*E7</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:11">
+      <c r="C8" s="1">
+        <v>202</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:12">
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4003</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
-      </c>
-      <c r="L6" s="1">
-        <f>E6*F6</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:12">
-      <c r="C7" s="1">
-        <v>101</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1">
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
-        <v>4004</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="I8" s="1">
+        <v>4008</v>
+      </c>
+      <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="L7" s="1">
-        <f>E7*F7</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:12">
-      <c r="C8" s="1">
-        <v>102</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:K15" si="0">D8*E8</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:11">
+      <c r="C9" s="1">
+        <v>203</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="1">
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="1">
-        <v>4008</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="I9" s="1">
+        <v>4010</v>
+      </c>
+      <c r="J9" s="1">
         <v>10</v>
       </c>
-      <c r="L8" s="1">
-        <f>E8*F8</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:12">
-      <c r="C9" s="1">
-        <v>103</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:11">
+      <c r="C10" s="1">
+        <v>204</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="1">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
         <v>10</v>
       </c>
-      <c r="L9" s="1">
-        <f>E9*F9</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:12">
-      <c r="C10" s="1">
-        <v>109</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
       <c r="J10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" ref="L10:L20" si="0">E10*F10</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:12">
-      <c r="C11" s="1">
-        <v>110</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1">
-        <v>11</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:12">
-      <c r="C12" s="1">
-        <v>111</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1">
+    <row r="11" customHeight="1" spans="3:11">
+      <c r="C11" s="1">
+        <v>205</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="1">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="I11" s="1">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:12">
+    <row r="12" customHeight="1" spans="3:11">
+      <c r="C12" s="1">
+        <v>206</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:11">
       <c r="C13" s="1">
-        <v>112</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1">
+        <v>207</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
         <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:11">
+      <c r="C14" s="1">
+        <v>208</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I13" s="1">
-        <v>11</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1999995</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:12">
-      <c r="C14" s="1">
-        <v>113</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:11">
+      <c r="C15" s="1">
+        <v>209</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="I14" s="1">
-        <v>11</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1999996</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:12">
-      <c r="C15" s="1">
-        <v>114</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:11">
+      <c r="C16" s="1">
+        <v>210</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I15" s="1">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1999997</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:12">
-      <c r="C16" s="1">
-        <v>115</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1">
-        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="1">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1999995</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16:K25" si="1">D16*E16</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:11">
+      <c r="C17" s="1">
+        <v>211</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4007</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:12">
-      <c r="C17" s="1">
-        <v>116</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1">
-        <v>200</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1999996</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:11">
+      <c r="C18" s="1">
+        <v>212</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="1">
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1999997</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:11">
+      <c r="C19" s="1">
+        <v>213</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="J17" s="1">
-        <v>4101</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1999994</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:12">
-      <c r="C18" s="1">
-        <v>117</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>13</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:12">
-      <c r="C19" s="1">
-        <v>118</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="3:11">
+      <c r="C20" s="1">
+        <v>214</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>8</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:12">
-      <c r="C20" s="1">
-        <v>119</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>49</v>
+      <c r="H20" s="1">
+        <v>11</v>
       </c>
       <c r="I20" s="1">
-        <v>4</v>
+        <v>1999993</v>
       </c>
       <c r="J20" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="1">
-        <v>199</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4007</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:11">
+      <c r="C22" s="1">
+        <v>216</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4101</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:11">
+      <c r="C23" s="1">
+        <v>217</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:11">
+      <c r="C24" s="1">
+        <v>218</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:11">
+      <c r="C25" s="1">
+        <v>219</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:10">
+      <c r="C26" s="1">
+        <v>220</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4999</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4006</v>
+      </c>
+      <c r="J26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>117</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1">
         <v>13</v>
       </c>
-      <c r="F21" s="1">
-        <v>4999</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <f>D33*E33</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="1">
-        <v>5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4006</v>
-      </c>
-      <c r="K21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="H34" s="1">
         <v>4</v>
       </c>
-      <c r="J29" s="1">
+      <c r="I34" s="1">
         <v>7</v>
       </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
-        <f>E29*F29</f>
-        <v>1000</v>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <f>D34*E34</f>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 D4 E4 F4 D5 E5 F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,D3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -62,111 +62,117 @@
     <t>string</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>兑换装备副本卷100个</t>
+  </si>
+  <si>
+    <t>装备副本卷</t>
+  </si>
+  <si>
+    <t>兑换BOSS挑战卷10个</t>
+  </si>
+  <si>
+    <t>BOSS挑战卷</t>
+  </si>
+  <si>
+    <t>兑换传世挑战卷4个</t>
+  </si>
+  <si>
+    <t>传世挑战卷</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>兑换凤凰之羽10个</t>
+  </si>
+  <si>
+    <t>凤凰之羽</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>兑换专属之心5个</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>兑换战神时装包1个</t>
+  </si>
+  <si>
+    <t>战神时装包</t>
+  </si>
+  <si>
+    <t>兑换恶魔时装包1个</t>
+  </si>
+  <si>
+    <t>恶魔时装包</t>
+  </si>
+  <si>
+    <t>兑换幽灵时装包1个</t>
+  </si>
+  <si>
+    <t>幽灵时装包</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>兑换圣战时装包1个</t>
+  </si>
+  <si>
+    <t>圣战时装包</t>
+  </si>
+  <si>
+    <t>兑换法神时装包1个</t>
+  </si>
+  <si>
+    <t>法神时装包</t>
+  </si>
+  <si>
+    <t>兑换天尊时装包1个</t>
+  </si>
+  <si>
+    <t>天尊时装包</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之力1个</t>
+  </si>
+  <si>
+    <t>龙之力</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之智1个</t>
+  </si>
+  <si>
+    <t>龙之智</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之秘1个</t>
+  </si>
+  <si>
+    <t>龙之秘</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之御1个</t>
+  </si>
+  <si>
+    <t>龙之御</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之血1个</t>
+  </si>
+  <si>
+    <t>龙之血</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>兑换装备副本卷100个</t>
-  </si>
-  <si>
-    <t>装备副本卷</t>
-  </si>
-  <si>
-    <t>兑换BOSS挑战卷10个</t>
-  </si>
-  <si>
-    <t>BOSS挑战卷</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>兑换凤凰之羽10个</t>
-  </si>
-  <si>
-    <t>凤凰之羽</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>兑换专属之心10个</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>兑换战神时装包1个</t>
-  </si>
-  <si>
-    <t>战神时装包</t>
-  </si>
-  <si>
-    <t>兑换恶魔时装包1个</t>
-  </si>
-  <si>
-    <t>恶魔时装包</t>
-  </si>
-  <si>
-    <t>兑换幽灵时装包1个</t>
-  </si>
-  <si>
-    <t>幽灵时装包</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>兑换圣战时装包1个</t>
-  </si>
-  <si>
-    <t>圣战时装包</t>
-  </si>
-  <si>
-    <t>兑换法神时装包1个</t>
-  </si>
-  <si>
-    <t>法神时装包</t>
-  </si>
-  <si>
-    <t>兑换天尊时装包1个</t>
-  </si>
-  <si>
-    <t>天尊时装包</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之力1个</t>
-  </si>
-  <si>
-    <t>龙之力</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之智1个</t>
-  </si>
-  <si>
-    <t>龙之智</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之秘1个</t>
-  </si>
-  <si>
-    <t>龙之秘</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之御1个</t>
-  </si>
-  <si>
-    <t>龙之御</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之血1个</t>
-  </si>
-  <si>
-    <t>龙之血</t>
-  </si>
-  <si>
     <t>兑换四格碎片1000个</t>
   </si>
   <si>
@@ -182,34 +188,34 @@
     <t>2000</t>
   </si>
   <si>
+    <t>兑换冰咆哮专属自选包1个</t>
+  </si>
+  <si>
+    <t>专属自选包</t>
+  </si>
+  <si>
+    <t>兑换8介技能自选包1个</t>
+  </si>
+  <si>
+    <t>8阶技能自选包</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>兑换9介技能自选包1个</t>
+  </si>
+  <si>
+    <t>9阶技能自选包</t>
+  </si>
+  <si>
+    <t>兑换书页100个</t>
+  </si>
+  <si>
+    <t>书页</t>
+  </si>
+  <si>
     <t>兑换攻略专属自选包1个</t>
-  </si>
-  <si>
-    <t>专属自选包</t>
-  </si>
-  <si>
-    <t>兑换8介技能自选包1个</t>
-  </si>
-  <si>
-    <t>8阶技能自选包</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>兑换9介技能自选包1个</t>
-  </si>
-  <si>
-    <t>9阶技能自选包</t>
-  </si>
-  <si>
-    <t>兑换书页100个</t>
-  </si>
-  <si>
-    <t>书页</t>
-  </si>
-  <si>
-    <t>兑换冰咆哮专属自选包1个</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I15"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1317,13 +1323,13 @@
     </row>
     <row r="6" customHeight="1" spans="3:11">
       <c r="C6" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -1341,19 +1347,19 @@
         <v>100</v>
       </c>
       <c r="K6" s="1">
-        <f>D6*E6</f>
-        <v>1000</v>
+        <f t="shared" ref="K6:K8" si="0">D6*E6</f>
+        <v>5400</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:11">
       <c r="C7" s="1">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1371,436 +1377,436 @@
         <v>10</v>
       </c>
       <c r="K7" s="1">
-        <f>D7*E7</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:11">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
-        <v>4008</v>
+        <v>4013</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K15" si="0">D8*E8</f>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>5400</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:11">
       <c r="C9" s="1">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="J9" s="1">
         <v>10</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+        <f t="shared" ref="K9:K16" si="1">D9*E9</f>
+        <v>3600</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:11">
       <c r="C10" s="1">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4</v>
-      </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>4010</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>6000</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:11">
       <c r="C11" s="1">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H11" s="1">
         <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>2400</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:11">
       <c r="C12" s="1">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H12" s="1">
         <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>2400</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:11">
       <c r="C13" s="1">
-        <v>207</v>
+        <v>307</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="4">
-        <v>15</v>
+      <c r="I13" s="1">
+        <v>12</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>2400</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:11">
       <c r="C14" s="1">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H14" s="1">
         <v>4</v>
       </c>
       <c r="I14" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:11">
       <c r="C15" s="1">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="0"/>
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:11">
       <c r="C16" s="1">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H16" s="1">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1999995</v>
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
+        <v>17</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:K25" si="1">D16*E16</f>
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:11">
       <c r="C17" s="1">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H17" s="1">
         <v>11</v>
       </c>
       <c r="I17" s="1">
-        <v>1999996</v>
+        <v>1999995</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" ref="K17:K26" si="2">D17*E17</f>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:11">
       <c r="C18" s="1">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H18" s="1">
         <v>11</v>
       </c>
       <c r="I18" s="1">
-        <v>1999997</v>
+        <v>1999996</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:11">
       <c r="C19" s="1">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H19" s="1">
         <v>11</v>
       </c>
       <c r="I19" s="1">
-        <v>1999994</v>
+        <v>1999997</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:11">
       <c r="C20" s="1">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H20" s="1">
         <v>11</v>
       </c>
       <c r="I20" s="1">
-        <v>1999993</v>
+        <v>1999994</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="1">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1">
         <v>11</v>
       </c>
-      <c r="E21" s="1">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5</v>
-      </c>
       <c r="I21" s="1">
-        <v>4007</v>
+        <v>1999993</v>
       </c>
       <c r="J21" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="1">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1">
         <v>200</v>
@@ -1815,52 +1821,52 @@
         <v>5</v>
       </c>
       <c r="I22" s="1">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="J22" s="1">
         <v>1000</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1">
+        <v>400</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="1">
-        <v>7</v>
+        <v>4101</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1875,55 +1881,55 @@
         <v>4</v>
       </c>
       <c r="I24" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H25" s="1">
         <v>4</v>
       </c>
       <c r="I25" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1">
-        <v>4999</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>58</v>
@@ -1932,49 +1938,47 @@
         <v>59</v>
       </c>
       <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>9</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:11">
+      <c r="C27" s="1">
+        <v>321</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4999</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="1">
         <v>5</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I27" s="1">
         <v>4006</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J27" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>117</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="1">
-        <v>4</v>
-      </c>
-      <c r="I33" s="1">
-        <v>13</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <f>D33*E33</f>
-        <v>2000</v>
+      <c r="K27" s="1">
+        <f>SUM(K6:K26)</f>
+        <v>116500</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -1985,31 +1989,67 @@
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H34" s="1">
         <v>4</v>
       </c>
       <c r="I34" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
       <c r="K34" s="1">
         <f>D34*E34</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <f>D35*E35</f>
         <v>2000</v>
       </c>
     </row>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1809,7 +1809,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>48</v>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
@@ -1839,7 +1839,7 @@
         <v>47</v>
       </c>
       <c r="E23" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>50</v>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" s="1">
         <f>SUM(K6:K26)</f>
-        <v>116500</v>
+        <v>101500</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>9阶技能自选包</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>特戒自选</t>
   </si>
   <si>
     <t>兑换书页100个</t>
@@ -1219,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="6" customHeight="1" spans="3:11">
       <c r="C6" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -1353,7 +1359,7 @@
     </row>
     <row r="7" customHeight="1" spans="3:11">
       <c r="C7" s="1">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="9" customHeight="1" spans="3:11">
       <c r="C9" s="1">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
@@ -1443,7 +1449,7 @@
     </row>
     <row r="10" customHeight="1" spans="3:11">
       <c r="C10" s="1">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>21</v>
@@ -1473,7 +1479,7 @@
     </row>
     <row r="11" customHeight="1" spans="3:11">
       <c r="C11" s="1">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
@@ -1503,7 +1509,7 @@
     </row>
     <row r="12" customHeight="1" spans="3:11">
       <c r="C12" s="1">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -1533,7 +1539,7 @@
     </row>
     <row r="13" customHeight="1" spans="3:11">
       <c r="C13" s="1">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -1563,7 +1569,7 @@
     </row>
     <row r="14" customHeight="1" spans="3:11">
       <c r="C14" s="1">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>30</v>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="15" customHeight="1" spans="3:11">
       <c r="C15" s="1">
-        <v>309</v>
+        <v>409</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>30</v>
@@ -1623,7 +1629,7 @@
     </row>
     <row r="16" customHeight="1" spans="3:11">
       <c r="C16" s="1">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>30</v>
@@ -1653,7 +1659,7 @@
     </row>
     <row r="17" customHeight="1" spans="3:11">
       <c r="C17" s="1">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>18</v>
@@ -1677,13 +1683,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K17:K26" si="2">D17*E17</f>
+        <f t="shared" ref="K17:K27" si="2">D17*E17</f>
         <v>1600</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:11">
       <c r="C18" s="1">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>18</v>
@@ -1713,7 +1719,7 @@
     </row>
     <row r="19" customHeight="1" spans="3:11">
       <c r="C19" s="1">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>18</v>
@@ -1743,7 +1749,7 @@
     </row>
     <row r="20" customHeight="1" spans="3:11">
       <c r="C20" s="1">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>18</v>
@@ -1773,7 +1779,7 @@
     </row>
     <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="1">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>18</v>
@@ -1803,7 +1809,7 @@
     </row>
     <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="1">
-        <v>316</v>
+        <v>416</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>47</v>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>47</v>
@@ -1863,7 +1869,7 @@
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>52</v>
@@ -1893,7 +1899,7 @@
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
-        <v>319</v>
+        <v>419</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>30</v>
@@ -1923,7 +1929,7 @@
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>57</v>
@@ -1953,68 +1959,62 @@
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1">
-        <v>4999</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>22</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:11">
+      <c r="C28" s="1">
+        <v>422</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4999</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="1">
         <v>5</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <v>4006</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28" s="1">
         <v>100</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <f>SUM(K6:K26)</f>
         <v>101500</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>117</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="1">
-        <v>4</v>
-      </c>
-      <c r="I34" s="1">
-        <v>13</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1">
-        <f>D34*E34</f>
-        <v>2000</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>52</v>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>54</v>
@@ -2043,13 +2043,49 @@
         <v>4</v>
       </c>
       <c r="I35" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
       </c>
       <c r="K35" s="1">
         <f>D35*E35</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <f>D36*E36</f>
         <v>2000</v>
       </c>
     </row>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -209,7 +209,7 @@
     <t>9阶技能自选包</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>30000</t>
   </si>
   <si>
     <t>特戒自选</t>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>书页</t>
-  </si>
-  <si>
-    <t>兑换攻略专属自选包1个</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="6" customHeight="1" spans="3:11">
       <c r="C6" s="1">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="7" customHeight="1" spans="3:11">
       <c r="C7" s="1">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
-        <v>402</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="9" customHeight="1" spans="3:11">
       <c r="C9" s="1">
-        <v>403</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
@@ -1449,7 +1446,7 @@
     </row>
     <row r="10" customHeight="1" spans="3:11">
       <c r="C10" s="1">
-        <v>404</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>21</v>
@@ -1479,7 +1476,7 @@
     </row>
     <row r="11" customHeight="1" spans="3:11">
       <c r="C11" s="1">
-        <v>405</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
@@ -1509,7 +1506,7 @@
     </row>
     <row r="12" customHeight="1" spans="3:11">
       <c r="C12" s="1">
-        <v>406</v>
+        <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="13" customHeight="1" spans="3:11">
       <c r="C13" s="1">
-        <v>407</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="14" customHeight="1" spans="3:11">
       <c r="C14" s="1">
-        <v>408</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>30</v>
@@ -1599,7 +1596,7 @@
     </row>
     <row r="15" customHeight="1" spans="3:11">
       <c r="C15" s="1">
-        <v>409</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>30</v>
@@ -1629,7 +1626,7 @@
     </row>
     <row r="16" customHeight="1" spans="3:11">
       <c r="C16" s="1">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>30</v>
@@ -1659,7 +1656,7 @@
     </row>
     <row r="17" customHeight="1" spans="3:11">
       <c r="C17" s="1">
-        <v>411</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>18</v>
@@ -1689,7 +1686,7 @@
     </row>
     <row r="18" customHeight="1" spans="3:11">
       <c r="C18" s="1">
-        <v>412</v>
+        <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>18</v>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="19" customHeight="1" spans="3:11">
       <c r="C19" s="1">
-        <v>413</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>18</v>
@@ -1749,7 +1746,7 @@
     </row>
     <row r="20" customHeight="1" spans="3:11">
       <c r="C20" s="1">
-        <v>414</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>18</v>
@@ -1779,7 +1776,7 @@
     </row>
     <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="1">
-        <v>415</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>18</v>
@@ -1809,7 +1806,7 @@
     </row>
     <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="1">
-        <v>416</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>47</v>
@@ -1839,7 +1836,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
-        <v>417</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>47</v>
@@ -1869,7 +1866,7 @@
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
-        <v>418</v>
+        <v>19</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>52</v>
@@ -1899,7 +1896,7 @@
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>30</v>
@@ -1929,7 +1926,7 @@
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
-        <v>420</v>
+        <v>21</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>57</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
-        <v>421</v>
+        <v>22</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>60</v>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
-        <v>422</v>
+        <v>23</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>47</v>
@@ -2025,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>52</v>
@@ -2050,42 +2047,6 @@
       </c>
       <c r="K35" s="1">
         <f>D35*E35</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:11">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="1">
-        <v>4</v>
-      </c>
-      <c r="I36" s="1">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
-        <f>D36*E36</f>
         <v>2000</v>
       </c>
     </row>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>#</t>
   </si>
@@ -65,106 +65,100 @@
     <t>300</t>
   </si>
   <si>
-    <t>兑换装备副本卷100个</t>
+    <t>兑换装备副本卷*100</t>
   </si>
   <si>
     <t>装备副本卷</t>
   </si>
   <si>
-    <t>兑换BOSS挑战卷10个</t>
+    <t>兑换BOSS挑战卷*10</t>
   </si>
   <si>
     <t>BOSS挑战卷</t>
   </si>
   <si>
-    <t>兑换传世挑战卷4个</t>
+    <t>兑换传世挑战卷*4</t>
   </si>
   <si>
     <t>传世挑战卷</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>兑换凤凰之羽10个</t>
+    <t>500</t>
+  </si>
+  <si>
+    <t>兑换凤凰之羽*10</t>
   </si>
   <si>
     <t>凤凰之羽</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>兑换专属之心5个</t>
+    <t>兑换专属之心*5</t>
   </si>
   <si>
     <t>专属之心</t>
   </si>
   <si>
-    <t>兑换战神时装包1个</t>
+    <t>兑换战神时装包*1</t>
   </si>
   <si>
     <t>战神时装包</t>
   </si>
   <si>
-    <t>兑换恶魔时装包1个</t>
+    <t>兑换恶魔时装包*1</t>
   </si>
   <si>
     <t>恶魔时装包</t>
   </si>
   <si>
-    <t>兑换幽灵时装包1个</t>
+    <t>兑换幽灵时装包*1</t>
   </si>
   <si>
     <t>幽灵时装包</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>兑换圣战时装包1个</t>
+    <t>兑换圣战时装包*1</t>
   </si>
   <si>
     <t>圣战时装包</t>
   </si>
   <si>
-    <t>兑换法神时装包1个</t>
+    <t>兑换法神时装包*1</t>
   </si>
   <si>
     <t>法神时装包</t>
   </si>
   <si>
-    <t>兑换天尊时装包1个</t>
+    <t>兑换天尊时装包*1</t>
   </si>
   <si>
     <t>天尊时装包</t>
   </si>
   <si>
-    <t>兑换图鉴龙之力1个</t>
+    <t>兑换图鉴龙之力*1</t>
   </si>
   <si>
     <t>龙之力</t>
   </si>
   <si>
-    <t>兑换图鉴龙之智1个</t>
+    <t>兑换图鉴龙之智*1</t>
   </si>
   <si>
     <t>龙之智</t>
   </si>
   <si>
-    <t>兑换图鉴龙之秘1个</t>
+    <t>兑换图鉴龙之秘*1</t>
   </si>
   <si>
     <t>龙之秘</t>
   </si>
   <si>
-    <t>兑换图鉴龙之御1个</t>
+    <t>兑换图鉴龙之御*1</t>
   </si>
   <si>
     <t>龙之御</t>
   </si>
   <si>
-    <t>兑换图鉴龙之血1个</t>
+    <t>兑换图鉴龙之血*1</t>
   </si>
   <si>
     <t>龙之血</t>
@@ -173,13 +167,13 @@
     <t>100</t>
   </si>
   <si>
-    <t>兑换四格碎片1000个</t>
+    <t>兑换四格碎片*1000</t>
   </si>
   <si>
     <t>四格碎片</t>
   </si>
   <si>
-    <t>兑换图鉴碎片1000个</t>
+    <t>兑换图鉴碎片*1000</t>
   </si>
   <si>
     <t>图鉴碎片</t>
@@ -188,34 +182,94 @@
     <t>2000</t>
   </si>
   <si>
-    <t>兑换冰咆哮专属自选包1个</t>
-  </si>
-  <si>
-    <t>专属自选包</t>
-  </si>
-  <si>
-    <t>兑换8介技能自选包1个</t>
-  </si>
-  <si>
-    <t>8阶技能自选包</t>
+    <t>兑换冰咆哮专属自选包*1</t>
+  </si>
+  <si>
+    <t>冰咆哮专属自选</t>
+  </si>
+  <si>
+    <t>兑换8介技能自选包*1</t>
+  </si>
+  <si>
+    <t>8阶技能自选</t>
   </si>
   <si>
     <t>1000</t>
   </si>
   <si>
-    <t>兑换9介技能自选包1个</t>
-  </si>
-  <si>
-    <t>9阶技能自选包</t>
+    <t>兑换9介技能自选包*1</t>
+  </si>
+  <si>
+    <t>9阶技能自选</t>
   </si>
   <si>
     <t>30000</t>
   </si>
   <si>
+    <t>兑换特戒自选*1</t>
+  </si>
+  <si>
     <t>特戒自选</t>
   </si>
   <si>
-    <t>兑换书页100个</t>
+    <t>兑换前5神技自选*1</t>
+  </si>
+  <si>
+    <t>前5神技自选</t>
+  </si>
+  <si>
+    <t>兑换后5神技自选*1</t>
+  </si>
+  <si>
+    <t>后5神技自选</t>
+  </si>
+  <si>
+    <t>兑换初级法宝自选*1</t>
+  </si>
+  <si>
+    <t>初级法宝自选</t>
+  </si>
+  <si>
+    <t>高级法宝自选</t>
+  </si>
+  <si>
+    <t>兑换经验丹*100</t>
+  </si>
+  <si>
+    <t>经验丹</t>
+  </si>
+  <si>
+    <t>兑换传世精华*100</t>
+  </si>
+  <si>
+    <t>传世精华</t>
+  </si>
+  <si>
+    <t>兑换红装精华*1</t>
+  </si>
+  <si>
+    <t>红装精华</t>
+  </si>
+  <si>
+    <t>兑换高级书页*20</t>
+  </si>
+  <si>
+    <t>高级书页</t>
+  </si>
+  <si>
+    <t>兑换魂环碎片*100w</t>
+  </si>
+  <si>
+    <t>魂环碎片</t>
+  </si>
+  <si>
+    <t>兑换精炼石*400w</t>
+  </si>
+  <si>
+    <t>精炼石</t>
+  </si>
+  <si>
+    <t>兑换书页1000个</t>
   </si>
   <si>
     <t>书页</t>
@@ -1222,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1332,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -1351,7 +1405,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" ref="K6:K8" si="0">D6*E6</f>
-        <v>5400</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:11">
@@ -1362,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="1">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1381,7 +1435,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
@@ -1392,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1411,7 +1465,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:11">
@@ -1422,7 +1476,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -1441,7 +1495,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" ref="K9:K16" si="1">D9*E9</f>
-        <v>3600</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:11">
@@ -1449,16 +1503,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -1471,7 +1525,7 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:11">
@@ -1482,13 +1536,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H11" s="1">
         <v>4</v>
@@ -1501,7 +1555,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:11">
@@ -1512,13 +1566,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H12" s="1">
         <v>4</v>
@@ -1531,7 +1585,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:11">
@@ -1542,13 +1596,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
@@ -1561,7 +1615,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:11">
@@ -1569,16 +1623,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H14" s="1">
         <v>4</v>
@@ -1591,7 +1645,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:11">
@@ -1599,16 +1653,16 @@
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
@@ -1621,7 +1675,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:11">
@@ -1629,16 +1683,16 @@
         <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
@@ -1651,7 +1705,7 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:11">
@@ -1659,16 +1713,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1">
         <v>11</v>
@@ -1680,8 +1734,8 @@
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K17:K27" si="2">D17*E17</f>
-        <v>1600</v>
+        <f t="shared" ref="K17:K29" si="2">D17*E17</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:11">
@@ -1689,16 +1743,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1">
         <v>11</v>
@@ -1711,7 +1765,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:11">
@@ -1719,16 +1773,16 @@
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1">
         <v>11</v>
@@ -1741,7 +1795,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:11">
@@ -1749,16 +1803,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H20" s="1">
         <v>11</v>
@@ -1771,7 +1825,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:11">
@@ -1779,16 +1833,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" s="1">
         <v>11</v>
@@ -1801,7 +1855,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
@@ -1809,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1">
+        <v>600</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E22" s="1">
-        <v>150</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H22" s="1">
         <v>5</v>
@@ -1831,7 +1885,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
@@ -1839,16 +1893,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -1861,7 +1915,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
@@ -1869,16 +1923,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
@@ -1899,16 +1953,16 @@
         <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H25" s="1">
         <v>4</v>
@@ -1920,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K25:K35" si="3">D25*E25</f>
         <v>500</v>
       </c>
     </row>
@@ -1929,16 +1983,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H26" s="1">
         <v>4</v>
@@ -1950,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -1959,16 +2013,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H27" s="1">
         <v>4</v>
@@ -1980,74 +2034,346 @@
         <v>1</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
         <v>23</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>47</v>
+      <c r="D28" s="1">
+        <v>36000</v>
       </c>
       <c r="E28" s="1">
-        <v>4999</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="3"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:11">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>48000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="1">
+      <c r="G29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:11">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>107</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:11">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>108</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:11">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="1">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4014</v>
+      </c>
+      <c r="J32" s="1">
+        <v>100</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" ref="K32:K37" si="4">D32*E32</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:11">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="1">
         <v>5</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I33" s="1">
+        <v>4012</v>
+      </c>
+      <c r="J33" s="1">
+        <v>100</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:11">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4011</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:11">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4102</v>
+      </c>
+      <c r="J35" s="1">
+        <v>20</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:11">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4012</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:11">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4002</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:11">
+      <c r="C39" s="1">
+        <v>99</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1">
+        <v>499</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
         <v>4006</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J39" s="1">
         <v>100</v>
       </c>
-      <c r="K28" s="1">
-        <f>SUM(K6:K26)</f>
-        <v>101500</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:11">
-      <c r="A35" s="1" t="s">
+      <c r="K39" s="1">
+        <f>D39*E39</f>
+        <v>499000</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>100</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="1">
-        <v>4</v>
-      </c>
-      <c r="I35" s="1">
-        <v>13</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1">
-        <f>D35*E35</f>
-        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -92,81 +92,132 @@
     <t>凤凰之羽</t>
   </si>
   <si>
+    <t>兑换战神时装包*1</t>
+  </si>
+  <si>
+    <t>战神时装包</t>
+  </si>
+  <si>
+    <t>兑换恶魔时装包*1</t>
+  </si>
+  <si>
+    <t>恶魔时装包</t>
+  </si>
+  <si>
+    <t>兑换幽灵时装包*1</t>
+  </si>
+  <si>
+    <t>幽灵时装包</t>
+  </si>
+  <si>
+    <t>兑换圣战时装包*1</t>
+  </si>
+  <si>
+    <t>圣战时装包</t>
+  </si>
+  <si>
+    <t>兑换法神时装包*1</t>
+  </si>
+  <si>
+    <t>法神时装包</t>
+  </si>
+  <si>
+    <t>兑换天尊时装包*1</t>
+  </si>
+  <si>
+    <t>天尊时装包</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之力*1</t>
+  </si>
+  <si>
+    <t>龙之力</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之智*1</t>
+  </si>
+  <si>
+    <t>龙之智</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之秘*1</t>
+  </si>
+  <si>
+    <t>龙之秘</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之御*1</t>
+  </si>
+  <si>
+    <t>龙之御</t>
+  </si>
+  <si>
+    <t>兑换图鉴龙之血*1</t>
+  </si>
+  <si>
+    <t>龙之血</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>兑换冰咆哮专属自选包*1</t>
+  </si>
+  <si>
+    <t>冰咆哮专属自选</t>
+  </si>
+  <si>
+    <t>兑换8介技能自选包*1</t>
+  </si>
+  <si>
+    <t>8阶技能自选</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>兑换9介技能自选包*1</t>
+  </si>
+  <si>
+    <t>9阶技能自选</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>兑换特戒自选*1</t>
+  </si>
+  <si>
+    <t>特戒自选</t>
+  </si>
+  <si>
+    <t>兑换前5神技自选*1</t>
+  </si>
+  <si>
+    <t>前5神技自选</t>
+  </si>
+  <si>
+    <t>兑换后5神技自选*1</t>
+  </si>
+  <si>
+    <t>后5神技自选</t>
+  </si>
+  <si>
+    <t>兑换初级法宝自选*1</t>
+  </si>
+  <si>
+    <t>初级法宝自选</t>
+  </si>
+  <si>
+    <t>高级法宝自选</t>
+  </si>
+  <si>
     <t>兑换专属之心*5</t>
   </si>
   <si>
     <t>专属之心</t>
   </si>
   <si>
-    <t>兑换战神时装包*1</t>
-  </si>
-  <si>
-    <t>战神时装包</t>
-  </si>
-  <si>
-    <t>兑换恶魔时装包*1</t>
-  </si>
-  <si>
-    <t>恶魔时装包</t>
-  </si>
-  <si>
-    <t>兑换幽灵时装包*1</t>
-  </si>
-  <si>
-    <t>幽灵时装包</t>
-  </si>
-  <si>
-    <t>兑换圣战时装包*1</t>
-  </si>
-  <si>
-    <t>圣战时装包</t>
-  </si>
-  <si>
-    <t>兑换法神时装包*1</t>
-  </si>
-  <si>
-    <t>法神时装包</t>
-  </si>
-  <si>
-    <t>兑换天尊时装包*1</t>
-  </si>
-  <si>
-    <t>天尊时装包</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之力*1</t>
-  </si>
-  <si>
-    <t>龙之力</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之智*1</t>
-  </si>
-  <si>
-    <t>龙之智</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之秘*1</t>
-  </si>
-  <si>
-    <t>龙之秘</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之御*1</t>
-  </si>
-  <si>
-    <t>龙之御</t>
-  </si>
-  <si>
-    <t>兑换图鉴龙之血*1</t>
-  </si>
-  <si>
-    <t>龙之血</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>兑换四格碎片*1000</t>
   </si>
   <si>
@@ -179,67 +230,13 @@
     <t>图鉴碎片</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>兑换冰咆哮专属自选包*1</t>
-  </si>
-  <si>
-    <t>冰咆哮专属自选</t>
-  </si>
-  <si>
-    <t>兑换8介技能自选包*1</t>
-  </si>
-  <si>
-    <t>8阶技能自选</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>兑换9介技能自选包*1</t>
-  </si>
-  <si>
-    <t>9阶技能自选</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>兑换特戒自选*1</t>
-  </si>
-  <si>
-    <t>特戒自选</t>
-  </si>
-  <si>
-    <t>兑换前5神技自选*1</t>
-  </si>
-  <si>
-    <t>前5神技自选</t>
-  </si>
-  <si>
-    <t>兑换后5神技自选*1</t>
-  </si>
-  <si>
-    <t>后5神技自选</t>
-  </si>
-  <si>
-    <t>兑换初级法宝自选*1</t>
-  </si>
-  <si>
-    <t>初级法宝自选</t>
-  </si>
-  <si>
-    <t>高级法宝自选</t>
-  </si>
-  <si>
     <t>兑换经验丹*100</t>
   </si>
   <si>
     <t>经验丹</t>
   </si>
   <si>
-    <t>兑换传世精华*100</t>
+    <t>兑换传世精华*200</t>
   </si>
   <si>
     <t>传世精华</t>
@@ -465,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +798,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,16 +822,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -837,95 +840,96 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -1276,10 +1280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1382,11 +1386,11 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -1404,19 +1408,19 @@
         <v>100</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K8" si="0">D6*E6</f>
-        <v>20400</v>
+        <f t="shared" ref="K6:K9" si="0">D6*E6</f>
+        <v>26400</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:11">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1435,18 +1439,18 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>20400</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1465,14 +1469,14 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>20400</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:11">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1">
@@ -1494,7 +1498,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ref="K9:K16" si="1">D9*E9</f>
+        <f t="shared" si="0"/>
         <v>19000</v>
       </c>
     </row>
@@ -1502,11 +1506,11 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
@@ -1515,24 +1519,24 @@
         <v>22</v>
       </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1">
-        <v>4010</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <f t="shared" ref="K10:K20" si="1">D10*E10</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:11">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1">
@@ -1548,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1562,7 +1566,7 @@
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1">
@@ -1578,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1592,8 +1596,8 @@
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E13" s="1">
         <v>40</v>
@@ -1607,22 +1611,22 @@
       <c r="H13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="1">
-        <v>12</v>
+      <c r="I13" s="5">
+        <v>15</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:11">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1">
@@ -1637,8 +1641,8 @@
       <c r="H14" s="1">
         <v>4</v>
       </c>
-      <c r="I14" s="4">
-        <v>15</v>
+      <c r="I14" s="5">
+        <v>16</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1652,7 +1656,7 @@
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1">
@@ -1667,8 +1671,8 @@
       <c r="H15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="4">
-        <v>16</v>
+      <c r="I15" s="5">
+        <v>17</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -1682,8 +1686,8 @@
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="1">
         <v>40</v>
@@ -1695,24 +1699,24 @@
         <v>34</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
-      </c>
-      <c r="I16" s="4">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1999995</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:11">
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1">
@@ -1728,13 +1732,13 @@
         <v>11</v>
       </c>
       <c r="I17" s="1">
-        <v>1999995</v>
+        <v>1999996</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K17:K29" si="2">D17*E17</f>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
@@ -1742,7 +1746,7 @@
       <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1">
@@ -1758,13 +1762,13 @@
         <v>11</v>
       </c>
       <c r="I18" s="1">
-        <v>1999996</v>
+        <v>1999997</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
@@ -1772,7 +1776,7 @@
       <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1">
@@ -1788,13 +1792,13 @@
         <v>11</v>
       </c>
       <c r="I19" s="1">
-        <v>1999997</v>
+        <v>1999994</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
@@ -1802,7 +1806,7 @@
       <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="1">
@@ -1818,13 +1822,13 @@
         <v>11</v>
       </c>
       <c r="I20" s="1">
-        <v>1999994</v>
+        <v>1999993</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
@@ -1832,41 +1836,41 @@
       <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>11</v>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1">
-        <v>1999993</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
-        <v>12000</v>
+        <f t="shared" ref="K21:K26" si="2">D21*E21</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>45</v>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="1">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>46</v>
@@ -1875,115 +1879,115 @@
         <v>47</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="1">
-        <v>4007</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
-        <v>60000</v>
+        <f t="shared" ref="K22:K37" si="3">D22*E22</f>
+        <v>500</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>45</v>
+      <c r="D23" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E23" s="1">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="1">
-        <v>4101</v>
+        <v>9</v>
       </c>
       <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="2"/>
-        <v>120000</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>50</v>
+      <c r="D24" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
       </c>
       <c r="I24" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>18</v>
+      <c r="D25" s="1">
+        <v>36000</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1">
         <v>4</v>
       </c>
       <c r="I25" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:K35" si="3">D25*E25</f>
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>72000</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
         <v>21</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
+      <c r="D26" s="1">
+        <v>48000</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1998,44 +2002,44 @@
         <v>4</v>
       </c>
       <c r="I26" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
         <v>22</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H27" s="1">
         <v>4</v>
       </c>
       <c r="I27" s="1">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
@@ -2043,29 +2047,29 @@
         <v>23</v>
       </c>
       <c r="D28" s="1">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -2073,29 +2077,29 @@
         <v>24</v>
       </c>
       <c r="D29" s="1">
-        <v>48000</v>
+        <v>500</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1">
-        <v>20</v>
+        <v>4010</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>48000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
@@ -2103,29 +2107,29 @@
         <v>25</v>
       </c>
       <c r="D30" s="1">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
-        <v>107</v>
+        <v>4007</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
@@ -2133,29 +2137,29 @@
         <v>26</v>
       </c>
       <c r="D31" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" s="1">
-        <v>108</v>
+        <v>4101</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
@@ -2163,16 +2167,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="H32" s="1">
         <v>15</v>
@@ -2184,8 +2188,8 @@
         <v>100</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" ref="K32:K37" si="4">D32*E32</f>
-        <v>40000</v>
+        <f t="shared" si="3"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
@@ -2193,16 +2197,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E33" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H33" s="1">
         <v>5</v>
@@ -2214,8 +2218,8 @@
         <v>100</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
-        <v>200000</v>
+        <f t="shared" si="3"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
@@ -2223,16 +2227,16 @@
         <v>29</v>
       </c>
       <c r="D34" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H34" s="1">
         <v>5</v>
@@ -2244,8 +2248,8 @@
         <v>1</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
@@ -2253,16 +2257,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E35" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="H35" s="1">
         <v>5</v>
@@ -2274,8 +2278,8 @@
         <v>20</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>40000</v>
+        <f t="shared" si="3"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
@@ -2283,16 +2287,16 @@
         <v>31</v>
       </c>
       <c r="D36" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E36" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H36" s="1">
         <v>5</v>
@@ -2304,8 +2308,8 @@
         <v>1000000</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
-        <v>60000</v>
+        <f t="shared" si="3"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
@@ -2313,16 +2317,16 @@
         <v>32</v>
       </c>
       <c r="D37" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E37" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H37" s="1">
         <v>5</v>
@@ -2334,45 +2338,855 @@
         <v>4000000</v>
       </c>
       <c r="K37" s="1">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:11">
+      <c r="C39" s="1">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4010</v>
+      </c>
+      <c r="J39" s="1">
+        <v>5</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" ref="K39:K65" si="4">D39*E39</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:11">
+      <c r="C40" s="1">
+        <v>34</v>
+      </c>
+      <c r="D40" s="4">
+        <v>200</v>
+      </c>
+      <c r="E40" s="1">
+        <v>300</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4007</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:11">
+      <c r="C41" s="1">
+        <v>35</v>
+      </c>
+      <c r="D41" s="4">
+        <v>200</v>
+      </c>
+      <c r="E41" s="1">
+        <v>500</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4101</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:11">
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="1">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4014</v>
+      </c>
+      <c r="J42" s="1">
+        <v>100</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:11">
+      <c r="C43" s="1">
+        <v>37</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4012</v>
+      </c>
+      <c r="J43" s="1">
+        <v>100</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:11">
+      <c r="C44" s="1">
+        <v>38</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4011</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:11">
+      <c r="C45" s="1">
+        <v>39</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4102</v>
+      </c>
+      <c r="J45" s="1">
+        <v>20</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:11">
+      <c r="C46" s="1">
+        <v>40</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4012</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:11">
+      <c r="C47" s="1">
+        <v>41</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4002</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:11">
+      <c r="C48" s="1">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4010</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:11">
+      <c r="C49" s="1">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1">
+        <v>400</v>
+      </c>
+      <c r="E49" s="1">
+        <v>300</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4007</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:11">
+      <c r="C50" s="1">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>400</v>
+      </c>
+      <c r="E50" s="1">
+        <v>500</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4101</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:11">
-      <c r="C39" s="1">
+    <row r="51" customHeight="1" spans="3:11">
+      <c r="C51" s="1">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="1">
+        <v>15</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4014</v>
+      </c>
+      <c r="J51" s="1">
+        <v>100</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:11">
+      <c r="C52" s="1">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>4012</v>
+      </c>
+      <c r="J52" s="1">
+        <v>100</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:11">
+      <c r="C53" s="1">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4011</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:11">
+      <c r="C54" s="1">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>4102</v>
+      </c>
+      <c r="J54" s="1">
+        <v>20</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:11">
+      <c r="C55" s="1">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4012</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:11">
+      <c r="C56" s="1">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="1">
+        <v>20</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="1">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1">
+        <v>4002</v>
+      </c>
+      <c r="J56" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:11">
+      <c r="C57" s="1">
+        <v>51</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="1">
+        <v>20</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="1">
+        <v>5</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4010</v>
+      </c>
+      <c r="J57" s="1">
+        <v>5</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:11">
+      <c r="C58" s="1">
+        <v>52</v>
+      </c>
+      <c r="D58" s="4">
+        <v>600</v>
+      </c>
+      <c r="E58" s="1">
+        <v>300</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>4007</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="4"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:11">
+      <c r="C59" s="1">
+        <v>53</v>
+      </c>
+      <c r="D59" s="4">
+        <v>600</v>
+      </c>
+      <c r="E59" s="1">
+        <v>500</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="1">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4101</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="4"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:11">
+      <c r="C60" s="1">
+        <v>54</v>
+      </c>
+      <c r="D60" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="1">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4014</v>
+      </c>
+      <c r="J60" s="1">
+        <v>100</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:11">
+      <c r="C61" s="1">
+        <v>55</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="1">
+        <v>20</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5</v>
+      </c>
+      <c r="I61" s="1">
+        <v>4012</v>
+      </c>
+      <c r="J61" s="1">
+        <v>100</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:11">
+      <c r="C62" s="1">
+        <v>56</v>
+      </c>
+      <c r="D62" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="1">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1">
+        <v>4011</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:11">
+      <c r="C63" s="1">
+        <v>57</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="1">
+        <v>5</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4102</v>
+      </c>
+      <c r="J63" s="1">
+        <v>20</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:11">
+      <c r="C64" s="1">
+        <v>58</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="1">
+        <v>20</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>4012</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:11">
+      <c r="C65" s="1">
+        <v>59</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="1">
+        <v>20</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="1">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4002</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:11">
+      <c r="C67" s="1">
         <v>99</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D67" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="1">
         <v>499</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="1">
-        <v>5</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="H67" s="1">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1">
         <v>4006</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J67" s="1">
         <v>100</v>
       </c>
-      <c r="K39" s="1">
-        <f>D39*E39</f>
+      <c r="K67" s="1">
+        <f>D67*E67</f>
         <v>499000</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="1" t="s">
+    <row r="74" customHeight="1" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
   <si>
     <t>#</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>初级法宝自选</t>
+  </si>
+  <si>
+    <t>兑换高级法宝自选*1</t>
   </si>
   <si>
     <t>高级法宝自选</t>
@@ -1283,7 +1286,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+      <selection activeCell="I57" sqref="I57:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2053,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
@@ -2083,10 +2086,10 @@
         <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
@@ -2113,10 +2116,10 @@
         <v>300</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" s="1">
         <v>5</v>
@@ -2143,10 +2146,10 @@
         <v>500</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H31" s="1">
         <v>5</v>
@@ -2173,10 +2176,10 @@
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H32" s="1">
         <v>15</v>
@@ -2203,10 +2206,10 @@
         <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1">
         <v>5</v>
@@ -2215,7 +2218,7 @@
         <v>4012</v>
       </c>
       <c r="J33" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
@@ -2233,10 +2236,10 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" s="1">
         <v>5</v>
@@ -2263,10 +2266,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" s="1">
         <v>5</v>
@@ -2293,16 +2296,16 @@
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" s="1">
         <v>5</v>
       </c>
       <c r="I36" s="1">
-        <v>4012</v>
+        <v>4001</v>
       </c>
       <c r="J36" s="1">
         <v>1000000</v>
@@ -2323,10 +2326,10 @@
         <v>20</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" s="1">
         <v>5</v>
@@ -2353,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39" s="1">
         <v>5</v>
@@ -2383,10 +2386,10 @@
         <v>300</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H40" s="1">
         <v>5</v>
@@ -2413,10 +2416,10 @@
         <v>500</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H41" s="1">
         <v>5</v>
@@ -2443,10 +2446,10 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H42" s="1">
         <v>15</v>
@@ -2473,10 +2476,10 @@
         <v>20</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H43" s="1">
         <v>5</v>
@@ -2485,7 +2488,7 @@
         <v>4012</v>
       </c>
       <c r="J43" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
@@ -2503,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H44" s="1">
         <v>5</v>
@@ -2533,10 +2536,10 @@
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H45" s="1">
         <v>5</v>
@@ -2563,16 +2566,16 @@
         <v>20</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" s="1">
         <v>5</v>
       </c>
       <c r="I46" s="1">
-        <v>4012</v>
+        <v>4001</v>
       </c>
       <c r="J46" s="1">
         <v>1000000</v>
@@ -2593,10 +2596,10 @@
         <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H47" s="1">
         <v>5</v>
@@ -2623,10 +2626,10 @@
         <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="1">
         <v>5</v>
@@ -2653,10 +2656,10 @@
         <v>300</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H49" s="1">
         <v>5</v>
@@ -2683,10 +2686,10 @@
         <v>500</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="1">
         <v>5</v>
@@ -2713,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H51" s="1">
         <v>15</v>
@@ -2743,10 +2746,10 @@
         <v>20</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H52" s="1">
         <v>5</v>
@@ -2755,7 +2758,7 @@
         <v>4012</v>
       </c>
       <c r="J52" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="4"/>
@@ -2773,10 +2776,10 @@
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H53" s="1">
         <v>5</v>
@@ -2803,10 +2806,10 @@
         <v>10</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H54" s="1">
         <v>5</v>
@@ -2833,16 +2836,16 @@
         <v>20</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" s="1">
         <v>5</v>
       </c>
       <c r="I55" s="1">
-        <v>4012</v>
+        <v>4001</v>
       </c>
       <c r="J55" s="1">
         <v>1000000</v>
@@ -2863,10 +2866,10 @@
         <v>20</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" s="1">
         <v>5</v>
@@ -2893,10 +2896,10 @@
         <v>20</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H57" s="1">
         <v>5</v>
@@ -2923,10 +2926,10 @@
         <v>300</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H58" s="1">
         <v>5</v>
@@ -2953,10 +2956,10 @@
         <v>500</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1">
         <v>5</v>
@@ -2983,10 +2986,10 @@
         <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H60" s="1">
         <v>15</v>
@@ -3013,10 +3016,10 @@
         <v>20</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H61" s="1">
         <v>5</v>
@@ -3025,7 +3028,7 @@
         <v>4012</v>
       </c>
       <c r="J61" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="4"/>
@@ -3043,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H62" s="1">
         <v>5</v>
@@ -3073,10 +3076,10 @@
         <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H63" s="1">
         <v>5</v>
@@ -3103,16 +3106,16 @@
         <v>20</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H64" s="1">
         <v>5</v>
       </c>
       <c r="I64" s="1">
-        <v>4012</v>
+        <v>4001</v>
       </c>
       <c r="J64" s="1">
         <v>1000000</v>
@@ -3133,10 +3136,10 @@
         <v>20</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H65" s="1">
         <v>5</v>
@@ -3163,10 +3166,10 @@
         <v>499</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H67" s="1">
         <v>5</v>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -1285,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57:J65"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="1">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -1285,7 +1285,7 @@
   <sheetPr/>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="1">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Step</t>
   </si>
   <si>
     <t>Cost</t>
@@ -1283,35 +1286,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="11:11">
-      <c r="K1" s="1" t="s">
+    <row r="1" customHeight="1" spans="12:12">
+      <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1320,7 +1323,7 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1332,12 +1335,15 @@
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1346,7 +1352,7 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1358,1845 +1364,2508 @@
       <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:11">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:12">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
         <v>88</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
         <v>9</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>4003</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>100</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6:K9" si="0">D6*E6</f>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L9" si="0">E6*F6</f>
         <v>26400</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:11">
+    <row r="7" customHeight="1" spans="3:12">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
         <v>88</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1">
-        <v>5</v>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
         <v>4004</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
         <v>88</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
         <v>9</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>4013</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:11">
+    <row r="9" customHeight="1" spans="3:12">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
         <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="1">
-        <v>5</v>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
         <v>4008</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>10</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>19000</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:11">
+    <row r="10" customHeight="1" spans="3:12">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
         <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>10</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
       <c r="K10" s="1">
-        <f t="shared" ref="K10:K20" si="1">D10*E10</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L20" si="1">E10*F10</f>
         <v>12000</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:11">
+    <row r="11" customHeight="1" spans="3:12">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
         <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>11</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
       <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:11">
+    <row r="12" customHeight="1" spans="3:12">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
         <v>40</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>12</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
       <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:11">
+    <row r="13" customHeight="1" spans="3:12">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
         <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>15</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
       <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:11">
+    <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1">
         <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1">
         <v>4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>16</v>
       </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
       <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:11">
+    <row r="15" customHeight="1" spans="3:12">
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1">
         <v>40</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>17</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
       <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:11">
+    <row r="16" customHeight="1" spans="3:12">
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
         <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="1">
         <v>11</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>1999995</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
       <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:11">
+    <row r="17" customHeight="1" spans="3:12">
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
         <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1">
         <v>11</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>1999996</v>
       </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
       <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:11">
+    <row r="18" customHeight="1" spans="3:12">
       <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
         <v>40</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>1999997</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
       <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:11">
+    <row r="19" customHeight="1" spans="3:12">
       <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
         <v>40</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="1">
         <v>11</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>1999994</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
       <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:11">
+    <row r="20" customHeight="1" spans="3:12">
       <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
         <v>40</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1">
         <v>11</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>1999993</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
       <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:11">
+    <row r="21" customHeight="1" spans="3:12">
       <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="1">
         <v>4</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>13</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21:K26" si="2">D21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" ref="L21:L26" si="2">E21*F21</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:11">
+    <row r="22" customHeight="1" spans="3:12">
       <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>46</v>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="1">
         <v>4</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>8</v>
       </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K37" si="3">D22*E22</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ref="L22:L37" si="3">E22*F22</f>
         <v>500</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:11">
+    <row r="23" customHeight="1" spans="3:12">
       <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>49</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="1">
         <v>4</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>9</v>
       </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
       <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:11">
+    <row r="24" customHeight="1" spans="3:12">
       <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1">
         <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="1">
         <v>4</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>22</v>
       </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
       <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:11">
+    <row r="25" customHeight="1" spans="3:12">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>36000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="1">
         <v>4</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>19</v>
       </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
       <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
         <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:11">
+    <row r="26" customHeight="1" spans="3:12">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>48000</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>56</v>
+      <c r="F26" s="1">
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="1">
         <v>4</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>20</v>
       </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
       <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="3"/>
         <v>48000</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:11">
+    <row r="27" customHeight="1" spans="3:12">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
         <v>50000</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>58</v>
+      <c r="F27" s="1">
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="1">
         <v>4</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>107</v>
       </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
       <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:11">
+    <row r="28" customHeight="1" spans="3:12">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <v>100000</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>60</v>
+      <c r="F28" s="1">
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="1">
         <v>4</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>108</v>
       </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
       <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="3:11">
+    <row r="29" customHeight="1" spans="3:13">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>500</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
+        <f>20*M29</f>
         <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="1">
-        <v>5</v>
+      <c r="H29" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
         <v>4010</v>
       </c>
-      <c r="J29" s="1">
-        <v>5</v>
-      </c>
       <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:11">
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:13">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>100</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
+        <f>300*M29</f>
         <v>300</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="1">
-        <v>5</v>
+      <c r="H30" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I30" s="1">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1">
         <v>4007</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>1000</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:11">
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:13">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>100</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
+        <f>500*M29</f>
         <v>500</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="1">
-        <v>5</v>
+      <c r="H31" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I31" s="1">
+        <v>5</v>
+      </c>
+      <c r="J31" s="1">
         <v>4101</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>1000</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:11">
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:13">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
         <v>1000</v>
       </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>68</v>
+      <c r="F32" s="1">
+        <f>5*M29</f>
+        <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="1">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>4014</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>100</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:11">
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:13">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>500</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
+        <f>20*M29</f>
         <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="1">
-        <v>5</v>
+      <c r="H33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I33" s="1">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
         <v>4012</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>200</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:11">
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:13">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
         <v>5000</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
+        <f>2*M29</f>
         <v>2</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="1">
-        <v>5</v>
+      <c r="H34" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="I34" s="1">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1">
         <v>4011</v>
       </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
       <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:11">
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:13">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
         <v>500</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
+        <f>10*M29</f>
         <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="1">
-        <v>5</v>
+      <c r="H35" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="I35" s="1">
+        <v>5</v>
+      </c>
+      <c r="J35" s="1">
         <v>4102</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>20</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:11">
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:13">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
         <v>500</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
+        <f>20*M29</f>
         <v>20</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="1">
-        <v>5</v>
+      <c r="H36" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
         <v>4001</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>1000000</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:11">
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:13">
       <c r="C37" s="1">
         <v>32</v>
       </c>
       <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
         <v>500</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
+        <f>20*M29</f>
         <v>20</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="1">
-        <v>5</v>
+      <c r="H37" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1">
         <v>4002</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>4000000</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:11">
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:13">
       <c r="C39" s="1">
         <v>33</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
         <v>1000</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
+        <f>20*M39</f>
         <v>20</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="1">
-        <v>5</v>
+      <c r="H39" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
         <v>4010</v>
       </c>
-      <c r="J39" s="1">
-        <v>5</v>
-      </c>
       <c r="K39" s="1">
-        <f t="shared" ref="K39:K65" si="4">D39*E39</f>
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" ref="L39:L74" si="4">E39*F39</f>
         <v>20000</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:11">
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:13">
       <c r="C40" s="1">
         <v>34</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
         <v>200</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
+        <f>300*M39</f>
         <v>300</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="1">
-        <v>5</v>
+      <c r="H40" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1">
         <v>4007</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>1000</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <f t="shared" si="4"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:11">
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:13">
       <c r="C41" s="1">
         <v>35</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
         <v>200</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
+        <f>500*M39</f>
         <v>500</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="1">
-        <v>5</v>
+      <c r="H41" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I41" s="1">
+        <v>5</v>
+      </c>
+      <c r="J41" s="1">
         <v>4101</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>1000</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:11">
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:13">
       <c r="C42" s="1">
         <v>36</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
         <v>2000</v>
       </c>
-      <c r="E42" s="1">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>68</v>
+      <c r="F42" s="1">
+        <f>5*M39</f>
+        <v>5</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="1">
         <v>15</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>4014</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>100</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:11">
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:13">
       <c r="C43" s="1">
         <v>37</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
         <v>1000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
+        <f>20*M39</f>
         <v>20</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="1">
-        <v>5</v>
+      <c r="H43" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I43" s="1">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1">
         <v>4012</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>200</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:11">
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:13">
       <c r="C44" s="1">
         <v>38</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4">
         <v>10000</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
+        <f>2*M39</f>
         <v>2</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="1">
-        <v>5</v>
+      <c r="H44" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="I44" s="1">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1">
         <v>4011</v>
       </c>
-      <c r="J44" s="1">
-        <v>1</v>
-      </c>
       <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:11">
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:13">
       <c r="C45" s="1">
         <v>39</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
         <v>1000</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
+        <f>10*M39</f>
         <v>10</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="1">
-        <v>5</v>
+      <c r="H45" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="I45" s="1">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1">
         <v>4102</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>20</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:11">
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:13">
       <c r="C46" s="1">
         <v>40</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
         <v>1000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
+        <f>20*M39</f>
         <v>20</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="1">
-        <v>5</v>
+      <c r="H46" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I46" s="1">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1">
         <v>4001</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>1000000</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:11">
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:13">
       <c r="C47" s="1">
         <v>41</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
         <v>1000</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
+        <f>20*M39</f>
         <v>20</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H47" s="1">
-        <v>5</v>
+      <c r="H47" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I47" s="1">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
         <v>4002</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>4000000</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:11">
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:13">
       <c r="C48" s="1">
         <v>42</v>
       </c>
       <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
         <v>2000</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
+        <f>20*M48</f>
         <v>20</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H48" s="1">
-        <v>5</v>
+      <c r="H48" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="I48" s="1">
+        <v>5</v>
+      </c>
+      <c r="J48" s="1">
         <v>4010</v>
       </c>
-      <c r="J48" s="1">
-        <v>5</v>
-      </c>
       <c r="K48" s="1">
+        <v>5</v>
+      </c>
+      <c r="L48" s="1">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:11">
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:13">
       <c r="C49" s="1">
         <v>43</v>
       </c>
       <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
         <v>400</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
+        <f>300*M48</f>
         <v>300</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H49" s="1">
-        <v>5</v>
+      <c r="H49" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I49" s="1">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1">
         <v>4007</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>1000</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <f t="shared" si="4"/>
         <v>120000</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:11">
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:13">
       <c r="C50" s="1">
         <v>44</v>
       </c>
       <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
         <v>400</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
+        <f>500*M48</f>
         <v>500</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="1">
-        <v>5</v>
+      <c r="H50" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I50" s="1">
+        <v>5</v>
+      </c>
+      <c r="J50" s="1">
         <v>4101</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <v>1000</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:11">
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:13">
       <c r="C51" s="1">
         <v>45</v>
       </c>
       <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
         <v>4000</v>
       </c>
-      <c r="E51" s="1">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>68</v>
+      <c r="F51" s="1">
+        <f>5*M48</f>
+        <v>5</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="1">
         <v>15</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>4014</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>100</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:11">
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:13">
       <c r="C52" s="1">
         <v>46</v>
       </c>
       <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
         <v>2000</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
+        <f>20*M48</f>
         <v>20</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="1">
-        <v>5</v>
+      <c r="H52" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I52" s="1">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1">
         <v>4012</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>200</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:11">
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:13">
       <c r="C53" s="1">
         <v>47</v>
       </c>
       <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
         <v>20000</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
+        <f>2*M48</f>
         <v>2</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H53" s="1">
-        <v>5</v>
+      <c r="H53" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="I53" s="1">
+        <v>5</v>
+      </c>
+      <c r="J53" s="1">
         <v>4011</v>
       </c>
-      <c r="J53" s="1">
-        <v>1</v>
-      </c>
       <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:11">
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:13">
       <c r="C54" s="1">
         <v>48</v>
       </c>
       <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
         <v>2000</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
+        <f>10*M48</f>
         <v>10</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H54" s="1">
-        <v>5</v>
+      <c r="H54" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="I54" s="1">
+        <v>5</v>
+      </c>
+      <c r="J54" s="1">
         <v>4102</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <v>20</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:11">
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:13">
       <c r="C55" s="1">
         <v>49</v>
       </c>
       <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
         <v>2000</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
+        <f>20*M48</f>
         <v>20</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H55" s="1">
-        <v>5</v>
+      <c r="H55" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I55" s="1">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1">
         <v>4001</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>1000000</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:11">
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:13">
       <c r="C56" s="1">
         <v>50</v>
       </c>
       <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
         <v>2000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
+        <f>20*M48</f>
         <v>20</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H56" s="1">
-        <v>5</v>
+      <c r="H56" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1">
         <v>4002</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>4000000</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:11">
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:13">
       <c r="C57" s="1">
         <v>51</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4">
         <v>3000</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
+        <f>20*M57</f>
         <v>20</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="1">
-        <v>5</v>
+      <c r="H57" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="I57" s="1">
+        <v>5</v>
+      </c>
+      <c r="J57" s="1">
         <v>4010</v>
       </c>
-      <c r="J57" s="1">
-        <v>5</v>
-      </c>
       <c r="K57" s="1">
+        <v>5</v>
+      </c>
+      <c r="L57" s="1">
         <f t="shared" si="4"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:11">
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:13">
       <c r="C58" s="1">
         <v>52</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="4">
         <v>600</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
+        <f>300*M57</f>
         <v>300</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="1">
-        <v>5</v>
+      <c r="H58" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I58" s="1">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1">
         <v>4007</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>1000</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <f t="shared" si="4"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:11">
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:13">
       <c r="C59" s="1">
         <v>53</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="4">
         <v>600</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
+        <f>500*M57</f>
         <v>500</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="1">
-        <v>5</v>
+      <c r="H59" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I59" s="1">
+        <v>5</v>
+      </c>
+      <c r="J59" s="1">
         <v>4101</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K59" s="1">
         <v>1000</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:11">
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:13">
       <c r="C60" s="1">
         <v>54</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="4">
         <v>6000</v>
       </c>
-      <c r="E60" s="1">
-        <v>5</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>68</v>
+      <c r="F60" s="1">
+        <f>5*M57</f>
+        <v>5</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="1">
         <v>15</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <v>4014</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K60" s="1">
         <v>100</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L60" s="1">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:11">
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:13">
       <c r="C61" s="1">
         <v>55</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="4">
         <v>3000</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
+        <f>20*M57</f>
         <v>20</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H61" s="1">
-        <v>5</v>
+      <c r="H61" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I61" s="1">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1">
         <v>4012</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <v>200</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <f t="shared" si="4"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:11">
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:13">
       <c r="C62" s="1">
         <v>56</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="4">
         <v>30000</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
+        <f>2*M57</f>
         <v>2</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H62" s="1">
-        <v>5</v>
+      <c r="H62" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="I62" s="1">
+        <v>5</v>
+      </c>
+      <c r="J62" s="1">
         <v>4011</v>
       </c>
-      <c r="J62" s="1">
-        <v>1</v>
-      </c>
       <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
         <f t="shared" si="4"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:11">
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:13">
       <c r="C63" s="1">
         <v>57</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" s="4">
         <v>3000</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
+        <f>10*M57</f>
         <v>10</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H63" s="1">
-        <v>5</v>
+      <c r="H63" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="I63" s="1">
+        <v>5</v>
+      </c>
+      <c r="J63" s="1">
         <v>4102</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <v>20</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:11">
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:13">
       <c r="C64" s="1">
         <v>58</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="1">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4">
         <v>3000</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
+        <f>20*M57</f>
         <v>20</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="1">
-        <v>5</v>
+      <c r="H64" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I64" s="1">
+        <v>5</v>
+      </c>
+      <c r="J64" s="1">
         <v>4001</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>1000000</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <f t="shared" si="4"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:11">
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:13">
       <c r="C65" s="1">
         <v>59</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="4">
         <v>3000</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
+        <f>20*M57</f>
         <v>20</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H65" s="1">
-        <v>5</v>
+      <c r="H65" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I65" s="1">
+        <v>5</v>
+      </c>
+      <c r="J65" s="1">
         <v>4002</v>
       </c>
-      <c r="J65" s="1">
+      <c r="K65" s="1">
         <v>4000000</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="1">
         <f t="shared" si="4"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:11">
+      <c r="M65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:13">
+      <c r="C66" s="1">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="1">
+        <f>20*M66</f>
+        <v>80</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" s="1">
+        <v>5</v>
+      </c>
+      <c r="J66" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K66" s="1">
+        <v>5</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" si="4"/>
+        <v>320000</v>
+      </c>
+      <c r="M66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:13">
       <c r="C67" s="1">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>800</v>
+      </c>
+      <c r="F67" s="1">
+        <f>300*M66</f>
+        <v>1200</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" s="1">
+        <v>5</v>
+      </c>
+      <c r="J67" s="1">
+        <v>4007</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" si="4"/>
+        <v>960000</v>
+      </c>
+      <c r="M67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:13">
+      <c r="C68" s="1">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>800</v>
+      </c>
+      <c r="F68" s="1">
+        <f>500*M66</f>
+        <v>2000</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68" s="1">
+        <v>5</v>
+      </c>
+      <c r="J68" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" si="4"/>
+        <v>1600000</v>
+      </c>
+      <c r="M68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:13">
+      <c r="C69" s="1">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F69" s="1">
+        <f>5*M66</f>
+        <v>20</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69" s="1">
+        <v>15</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4014</v>
+      </c>
+      <c r="K69" s="1">
+        <v>100</v>
+      </c>
+      <c r="L69" s="1">
+        <f t="shared" si="4"/>
+        <v>160000</v>
+      </c>
+      <c r="M69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:13">
+      <c r="C70" s="1">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F70" s="1">
+        <f>20*M66</f>
+        <v>80</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" s="1">
+        <v>5</v>
+      </c>
+      <c r="J70" s="1">
+        <v>4012</v>
+      </c>
+      <c r="K70" s="1">
+        <v>200</v>
+      </c>
+      <c r="L70" s="1">
+        <f t="shared" si="4"/>
+        <v>320000</v>
+      </c>
+      <c r="M70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:13">
+      <c r="C71" s="1">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5</v>
+      </c>
+      <c r="E71" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F71" s="1">
+        <f>2*M66</f>
+        <v>8</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" s="1">
+        <v>5</v>
+      </c>
+      <c r="J71" s="1">
+        <v>4011</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="4"/>
+        <v>320000</v>
+      </c>
+      <c r="M71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:13">
+      <c r="C72" s="1">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F72" s="1">
+        <f>10*M66</f>
+        <v>40</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72" s="1">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K72" s="1">
+        <v>20</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="4"/>
+        <v>160000</v>
+      </c>
+      <c r="M72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:13">
+      <c r="C73" s="1">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F73" s="1">
+        <f>20*M66</f>
+        <v>80</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="1">
+        <v>5</v>
+      </c>
+      <c r="J73" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="4"/>
+        <v>320000</v>
+      </c>
+      <c r="M73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:13">
+      <c r="C74" s="1">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F74" s="1">
+        <f>20*M66</f>
+        <v>80</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74" s="1">
+        <v>5</v>
+      </c>
+      <c r="J74" s="1">
+        <v>4002</v>
+      </c>
+      <c r="K74" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="4"/>
+        <v>320000</v>
+      </c>
+      <c r="M74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:12">
+      <c r="C77" s="1">
         <v>99</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" s="1">
         <v>499</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H67" s="1">
-        <v>5</v>
-      </c>
-      <c r="I67" s="1">
+      <c r="H77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I77" s="1">
+        <v>5</v>
+      </c>
+      <c r="J77" s="1">
         <v>4006</v>
       </c>
-      <c r="J67" s="1">
+      <c r="K77" s="1">
         <v>100</v>
       </c>
-      <c r="K67" s="1">
-        <f>D67*E67</f>
+      <c r="L77" s="1">
+        <f>E77*F77</f>
         <v>499000</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:2">
-      <c r="A74" s="1" t="s">
+    <row r="84" customHeight="1" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 D4 E4 F4 D5 E5 F5" errorStyle="warning">
-      <formula1>COUNTIF($C:$C,D3)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 E4 F4 G4 E5 F5 G5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,E3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>19</v>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>12</v>
@@ -1633,7 +1633,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>19</v>
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>19</v>
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>19</v>
@@ -1732,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -1798,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -1831,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>12</v>
@@ -1864,7 +1864,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>12</v>
@@ -1897,7 +1897,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>44</v>
@@ -1930,7 +1930,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>19</v>
@@ -1963,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>49</v>
@@ -1996,7 +1996,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>52</v>
@@ -2029,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>36000</v>
@@ -2062,7 +2062,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>48000</v>
@@ -2095,7 +2095,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>50000</v>
@@ -2128,7 +2128,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>100000</v>
@@ -3847,7 +3847,7 @@
         <v>4006</v>
       </c>
       <c r="K77" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L77" s="1">
         <f>E77*F77</f>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -194,6 +194,66 @@
     <t>特戒自选</t>
   </si>
   <si>
+    <t>兑换专属之心*5</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>兑换四格碎片*1000</t>
+  </si>
+  <si>
+    <t>四格碎片</t>
+  </si>
+  <si>
+    <t>兑换图鉴碎片*1000</t>
+  </si>
+  <si>
+    <t>图鉴碎片</t>
+  </si>
+  <si>
+    <t>兑换经验丹*100</t>
+  </si>
+  <si>
+    <t>经验丹</t>
+  </si>
+  <si>
+    <t>兑换传世精华*200</t>
+  </si>
+  <si>
+    <t>传世精华</t>
+  </si>
+  <si>
+    <t>兑换红装精华*1</t>
+  </si>
+  <si>
+    <t>红装精华</t>
+  </si>
+  <si>
+    <t>兑换高级书页*20</t>
+  </si>
+  <si>
+    <t>高级书页</t>
+  </si>
+  <si>
+    <t>兑换魂环碎片*100w</t>
+  </si>
+  <si>
+    <t>魂环碎片</t>
+  </si>
+  <si>
+    <t>兑换精炼石*600w</t>
+  </si>
+  <si>
+    <t>精炼石</t>
+  </si>
+  <si>
+    <t>兑换书页1000个</t>
+  </si>
+  <si>
+    <t>书页</t>
+  </si>
+  <si>
     <t>兑换前5神技自选*1</t>
   </si>
   <si>
@@ -216,66 +276,6 @@
   </si>
   <si>
     <t>高级法宝自选</t>
-  </si>
-  <si>
-    <t>兑换专属之心*5</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>兑换四格碎片*1000</t>
-  </si>
-  <si>
-    <t>四格碎片</t>
-  </si>
-  <si>
-    <t>兑换图鉴碎片*1000</t>
-  </si>
-  <si>
-    <t>图鉴碎片</t>
-  </si>
-  <si>
-    <t>兑换经验丹*100</t>
-  </si>
-  <si>
-    <t>经验丹</t>
-  </si>
-  <si>
-    <t>兑换传世精华*200</t>
-  </si>
-  <si>
-    <t>传世精华</t>
-  </si>
-  <si>
-    <t>兑换红装精华*1</t>
-  </si>
-  <si>
-    <t>红装精华</t>
-  </si>
-  <si>
-    <t>兑换高级书页*20</t>
-  </si>
-  <si>
-    <t>高级书页</t>
-  </si>
-  <si>
-    <t>兑换魂环碎片*100w</t>
-  </si>
-  <si>
-    <t>魂环碎片</t>
-  </si>
-  <si>
-    <t>兑换精炼石*400w</t>
-  </si>
-  <si>
-    <t>精炼石</t>
-  </si>
-  <si>
-    <t>兑换书页1000个</t>
-  </si>
-  <si>
-    <t>书页</t>
   </si>
 </sst>
 </file>
@@ -1286,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:L37"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1408,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:L9" si="0">E6*F6</f>
-        <v>26400</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:12">
@@ -1441,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>26400</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
@@ -1474,7 +1474,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>26400</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
@@ -1507,7 +1507,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:12">
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" ref="L21:L26" si="2">E21*F21</f>
+        <f>E21*F21</f>
         <v>2000</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ref="L22:L37" si="3">E22*F22</f>
+        <f>E22*F22</f>
         <v>500</v>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="3"/>
+        <f>E23*F23</f>
         <v>1000</v>
       </c>
     </row>
@@ -2020,1210 +2020,1189 @@
         <v>1</v>
       </c>
       <c r="L24" s="1">
+        <f>E24*F24</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:13">
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>500</v>
+      </c>
+      <c r="F26" s="1">
+        <f>20*M26</f>
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" ref="L26:L34" si="2">E26*F26</f>
+        <v>10000</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:13">
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1">
+        <f>300*M26</f>
+        <v>300</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4007</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:13">
+      <c r="C28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1">
+        <f>500*M26</f>
+        <v>500</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:13">
+      <c r="C29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="1">
+        <f>5*M26</f>
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="1">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4014</v>
+      </c>
+      <c r="K29" s="1">
+        <v>100</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:13">
+      <c r="C30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>500</v>
+      </c>
+      <c r="F30" s="1">
+        <f>20*M26</f>
+        <v>20</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4012</v>
+      </c>
+      <c r="K30" s="1">
+        <v>200</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:13">
+      <c r="C31" s="1">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F31" s="1">
+        <f>2*M26</f>
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4011</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:13">
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>500</v>
+      </c>
+      <c r="F32" s="1">
+        <f>10*M26</f>
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K32" s="1">
+        <v>20</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:13">
+      <c r="C33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>500</v>
+      </c>
+      <c r="F33" s="1">
+        <f>20*M26</f>
+        <v>20</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:13">
+      <c r="C34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>500</v>
+      </c>
+      <c r="F34" s="1">
+        <f>20*M26</f>
+        <v>20</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4002</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:13">
+      <c r="C36" s="1">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="1">
+        <f>20*M36</f>
+        <v>20</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" ref="L36:L71" si="3">E36*F36</f>
+        <v>20000</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:13">
+      <c r="C37" s="1">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <f>300*M36</f>
+        <v>300</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4007</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="1">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:12">
-      <c r="C25" s="1">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>36000</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:13">
+      <c r="C38" s="1">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="1">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1">
-        <v>19</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="3"/>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:12">
-      <c r="C26" s="1">
-        <v>21</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>48000</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="1">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1">
-        <v>20</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="3"/>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:12">
-      <c r="C27" s="1">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="E38" s="4">
+        <v>200</v>
+      </c>
+      <c r="F38" s="1">
+        <f>500*M36</f>
+        <v>500</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="1">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1">
-        <v>107</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:12">
-      <c r="C28" s="1">
-        <v>23</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="1">
-        <v>4</v>
-      </c>
-      <c r="J28" s="1">
-        <v>108</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="1">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:13">
-      <c r="C29" s="1">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>500</v>
-      </c>
-      <c r="F29" s="1">
-        <f>20*M29</f>
-        <v>20</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="1">
-        <v>5</v>
-      </c>
-      <c r="J29" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K29" s="1">
-        <v>5</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:13">
+      <c r="C39" s="1">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="1">
+        <f>5*M36</f>
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="1">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4014</v>
+      </c>
+      <c r="K39" s="1">
+        <v>100</v>
+      </c>
+      <c r="L39" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:13">
-      <c r="C30" s="1">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:13">
+      <c r="C40" s="1">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="1">
+        <f>20*M36</f>
+        <v>20</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4012</v>
+      </c>
+      <c r="K40" s="1">
+        <v>200</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:13">
+      <c r="C41" s="1">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F41" s="1">
+        <f>2*M36</f>
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="1">
+        <v>5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4011</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:13">
+      <c r="C42" s="1">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="1">
+        <f>10*M36</f>
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K42" s="1">
+        <v>20</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:13">
+      <c r="C43" s="1">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="1">
+        <f>20*M36</f>
+        <v>20</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:13">
+      <c r="C44" s="1">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="1">
+        <f>20*M36</f>
+        <v>20</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4002</v>
+      </c>
+      <c r="K44" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:13">
+      <c r="C45" s="1">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="1">
+        <f>20*M45</f>
+        <v>20</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K45" s="1">
+        <v>5</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:13">
+      <c r="C46" s="1">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>400</v>
+      </c>
+      <c r="F46" s="1">
+        <f>300*M45</f>
+        <v>300</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1">
+        <v>4007</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:13">
+      <c r="C47" s="1">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>400</v>
+      </c>
+      <c r="F47" s="1">
+        <f>500*M45</f>
+        <v>500</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:13">
+      <c r="C48" s="1">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F48" s="1">
+        <f>5*M45</f>
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="1">
+        <v>15</v>
+      </c>
+      <c r="J48" s="1">
+        <v>4014</v>
+      </c>
+      <c r="K48" s="1">
         <v>100</v>
       </c>
-      <c r="F30" s="1">
-        <f>300*M29</f>
+      <c r="L48" s="1">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:13">
+      <c r="C49" s="1">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="1">
+        <f>20*M45</f>
+        <v>20</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1">
+        <v>4012</v>
+      </c>
+      <c r="K49" s="1">
+        <v>200</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:13">
+      <c r="C50" s="1">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F50" s="1">
+        <f>2*M45</f>
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>4011</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:13">
+      <c r="C51" s="1">
+        <v>48</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="1">
+        <f>10*M45</f>
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="1">
+        <v>5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K51" s="1">
+        <v>20</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:13">
+      <c r="C52" s="1">
+        <v>49</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="1">
+        <f>20*M45</f>
+        <v>20</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:13">
+      <c r="C53" s="1">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F53" s="1">
+        <f>20*M45</f>
+        <v>20</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4002</v>
+      </c>
+      <c r="K53" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:13">
+      <c r="C54" s="1">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="1">
+        <f>20*M54</f>
+        <v>20</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="1">
+        <v>5</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K54" s="1">
+        <v>5</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:13">
+      <c r="C55" s="1">
+        <v>52</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4">
+        <v>600</v>
+      </c>
+      <c r="F55" s="1">
+        <f>300*M54</f>
         <v>300</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="1">
-        <v>5</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I55" s="1">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1">
         <v>4007</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K55" s="1">
         <v>1000</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L55" s="1">
+        <f t="shared" si="3"/>
+        <v>180000</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:13">
+      <c r="C56" s="1">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4</v>
+      </c>
+      <c r="E56" s="4">
+        <v>600</v>
+      </c>
+      <c r="F56" s="1">
+        <f>500*M54</f>
+        <v>500</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="3"/>
+        <v>300000</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:13">
+      <c r="C57" s="1">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F57" s="1">
+        <f>5*M54</f>
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="1">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4014</v>
+      </c>
+      <c r="K57" s="1">
+        <v>100</v>
+      </c>
+      <c r="L57" s="1">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:13">
-      <c r="C31" s="1">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>100</v>
-      </c>
-      <c r="F31" s="1">
-        <f>500*M29</f>
-        <v>500</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="1">
-        <v>5</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4101</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:13">
-      <c r="C32" s="1">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F32" s="1">
-        <f>5*M29</f>
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="1">
-        <v>15</v>
-      </c>
-      <c r="J32" s="1">
-        <v>4014</v>
-      </c>
-      <c r="K32" s="1">
-        <v>100</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:13">
-      <c r="C33" s="1">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>500</v>
-      </c>
-      <c r="F33" s="1">
-        <f>20*M29</f>
-        <v>20</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="1">
-        <v>5</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4012</v>
-      </c>
-      <c r="K33" s="1">
-        <v>200</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:13">
-      <c r="C34" s="1">
-        <v>29</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F34" s="1">
-        <f>2*M29</f>
-        <v>2</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="1">
-        <v>5</v>
-      </c>
-      <c r="J34" s="1">
-        <v>4011</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:13">
-      <c r="C35" s="1">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>500</v>
-      </c>
-      <c r="F35" s="1">
-        <f>10*M29</f>
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="1">
-        <v>5</v>
-      </c>
-      <c r="J35" s="1">
-        <v>4102</v>
-      </c>
-      <c r="K35" s="1">
-        <v>20</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:13">
-      <c r="C36" s="1">
-        <v>31</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>500</v>
-      </c>
-      <c r="F36" s="1">
-        <f>20*M29</f>
-        <v>20</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="1">
-        <v>5</v>
-      </c>
-      <c r="J36" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:13">
-      <c r="C37" s="1">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>500</v>
-      </c>
-      <c r="F37" s="1">
-        <f>20*M29</f>
-        <v>20</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" s="1">
-        <v>5</v>
-      </c>
-      <c r="J37" s="1">
-        <v>4002</v>
-      </c>
-      <c r="K37" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:13">
-      <c r="C39" s="1">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F39" s="1">
-        <f>20*M39</f>
-        <v>20</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="1">
-        <v>5</v>
-      </c>
-      <c r="J39" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K39" s="1">
-        <v>5</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" ref="L39:L74" si="4">E39*F39</f>
-        <v>20000</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:13">
-      <c r="C40" s="1">
-        <v>34</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="4">
-        <v>200</v>
-      </c>
-      <c r="F40" s="1">
-        <f>300*M39</f>
-        <v>300</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="1">
-        <v>5</v>
-      </c>
-      <c r="J40" s="1">
-        <v>4007</v>
-      </c>
-      <c r="K40" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="4"/>
-        <v>60000</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:13">
-      <c r="C41" s="1">
-        <v>35</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="4">
-        <v>200</v>
-      </c>
-      <c r="F41" s="1">
-        <f>500*M39</f>
-        <v>500</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="1">
-        <v>5</v>
-      </c>
-      <c r="J41" s="1">
-        <v>4101</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:13">
-      <c r="C42" s="1">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F42" s="1">
-        <f>5*M39</f>
-        <v>5</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="1">
-        <v>15</v>
-      </c>
-      <c r="J42" s="1">
-        <v>4014</v>
-      </c>
-      <c r="K42" s="1">
-        <v>100</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:13">
-      <c r="C43" s="1">
-        <v>37</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F43" s="1">
-        <f>20*M39</f>
-        <v>20</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" s="1">
-        <v>5</v>
-      </c>
-      <c r="J43" s="1">
-        <v>4012</v>
-      </c>
-      <c r="K43" s="1">
-        <v>200</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:13">
-      <c r="C44" s="1">
-        <v>38</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F44" s="1">
-        <f>2*M39</f>
-        <v>2</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="1">
-        <v>5</v>
-      </c>
-      <c r="J44" s="1">
-        <v>4011</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:13">
-      <c r="C45" s="1">
-        <v>39</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F45" s="1">
-        <f>10*M39</f>
-        <v>10</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="1">
-        <v>5</v>
-      </c>
-      <c r="J45" s="1">
-        <v>4102</v>
-      </c>
-      <c r="K45" s="1">
-        <v>20</v>
-      </c>
-      <c r="L45" s="1">
-        <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="M45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:13">
-      <c r="C46" s="1">
-        <v>40</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F46" s="1">
-        <f>20*M39</f>
-        <v>20</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="1">
-        <v>5</v>
-      </c>
-      <c r="J46" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K46" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L46" s="1">
-        <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="M46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:13">
-      <c r="C47" s="1">
-        <v>41</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F47" s="1">
-        <f>20*M39</f>
-        <v>20</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="1">
-        <v>5</v>
-      </c>
-      <c r="J47" s="1">
-        <v>4002</v>
-      </c>
-      <c r="K47" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="L47" s="1">
-        <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:13">
-      <c r="C48" s="1">
-        <v>42</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F48" s="1">
-        <f>20*M48</f>
-        <v>20</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" s="1">
-        <v>5</v>
-      </c>
-      <c r="J48" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K48" s="1">
-        <v>5</v>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:13">
-      <c r="C49" s="1">
-        <v>43</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>400</v>
-      </c>
-      <c r="F49" s="1">
-        <f>300*M48</f>
-        <v>300</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="1">
-        <v>5</v>
-      </c>
-      <c r="J49" s="1">
-        <v>4007</v>
-      </c>
-      <c r="K49" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L49" s="1">
-        <f t="shared" si="4"/>
-        <v>120000</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:13">
-      <c r="C50" s="1">
-        <v>44</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>400</v>
-      </c>
-      <c r="F50" s="1">
-        <f>500*M48</f>
-        <v>500</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50" s="1">
-        <v>5</v>
-      </c>
-      <c r="J50" s="1">
-        <v>4101</v>
-      </c>
-      <c r="K50" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L50" s="1">
-        <f t="shared" si="4"/>
-        <v>200000</v>
-      </c>
-      <c r="M50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:13">
-      <c r="C51" s="1">
-        <v>45</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F51" s="1">
-        <f>5*M48</f>
-        <v>5</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I51" s="1">
-        <v>15</v>
-      </c>
-      <c r="J51" s="1">
-        <v>4014</v>
-      </c>
-      <c r="K51" s="1">
-        <v>100</v>
-      </c>
-      <c r="L51" s="1">
-        <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="M51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:13">
-      <c r="C52" s="1">
-        <v>46</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="1">
-        <f>20*M48</f>
-        <v>20</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I52" s="1">
-        <v>5</v>
-      </c>
-      <c r="J52" s="1">
-        <v>4012</v>
-      </c>
-      <c r="K52" s="1">
-        <v>200</v>
-      </c>
-      <c r="L52" s="1">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-      <c r="M52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:13">
-      <c r="C53" s="1">
-        <v>47</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F53" s="1">
-        <f>2*M48</f>
-        <v>2</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="1">
-        <v>5</v>
-      </c>
-      <c r="J53" s="1">
-        <v>4011</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
-      <c r="L53" s="1">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-      <c r="M53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:13">
-      <c r="C54" s="1">
-        <v>48</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F54" s="1">
-        <f>10*M48</f>
-        <v>10</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I54" s="1">
-        <v>5</v>
-      </c>
-      <c r="J54" s="1">
-        <v>4102</v>
-      </c>
-      <c r="K54" s="1">
-        <v>20</v>
-      </c>
-      <c r="L54" s="1">
-        <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="M54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:13">
-      <c r="C55" s="1">
-        <v>49</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F55" s="1">
-        <f>20*M48</f>
-        <v>20</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I55" s="1">
-        <v>5</v>
-      </c>
-      <c r="J55" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K55" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L55" s="1">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-      <c r="M55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:13">
-      <c r="C56" s="1">
-        <v>50</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F56" s="1">
-        <f>20*M48</f>
-        <v>20</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I56" s="1">
-        <v>5</v>
-      </c>
-      <c r="J56" s="1">
-        <v>4002</v>
-      </c>
-      <c r="K56" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="L56" s="1">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-      <c r="M56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:13">
-      <c r="C57" s="1">
-        <v>51</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4</v>
-      </c>
-      <c r="E57" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F57" s="1">
-        <f>20*M57</f>
-        <v>20</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I57" s="1">
-        <v>5</v>
-      </c>
-      <c r="J57" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K57" s="1">
-        <v>5</v>
-      </c>
-      <c r="L57" s="1">
-        <f t="shared" si="4"/>
-        <v>60000</v>
-      </c>
       <c r="M57" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:13">
       <c r="C58" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
       </c>
       <c r="E58" s="4">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="1">
-        <f>300*M57</f>
-        <v>300</v>
+        <f>20*M54</f>
+        <v>20</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I58" s="1">
         <v>5</v>
       </c>
       <c r="J58" s="1">
-        <v>4007</v>
+        <v>4012</v>
       </c>
       <c r="K58" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="4"/>
-        <v>180000</v>
+        <f t="shared" si="3"/>
+        <v>60000</v>
       </c>
       <c r="M58" s="1">
         <v>1</v>
@@ -3231,36 +3210,36 @@
     </row>
     <row r="59" customHeight="1" spans="3:13">
       <c r="C59" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
       </c>
       <c r="E59" s="4">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="F59" s="1">
-        <f>500*M57</f>
-        <v>500</v>
+        <f>2*M54</f>
+        <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I59" s="1">
         <v>5</v>
       </c>
       <c r="J59" s="1">
-        <v>4101</v>
+        <v>4011</v>
       </c>
       <c r="K59" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="4"/>
-        <v>300000</v>
+        <f t="shared" si="3"/>
+        <v>60000</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
@@ -3268,35 +3247,35 @@
     </row>
     <row r="60" customHeight="1" spans="3:13">
       <c r="C60" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
       </c>
       <c r="E60" s="4">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F60" s="1">
-        <f>5*M57</f>
-        <v>5</v>
+        <f>10*M54</f>
+        <v>10</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I60" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J60" s="1">
-        <v>4014</v>
+        <v>4102</v>
       </c>
       <c r="K60" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="M60" s="1">
@@ -3305,7 +3284,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:13">
       <c r="C61" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
@@ -3314,26 +3293,26 @@
         <v>3000</v>
       </c>
       <c r="F61" s="1">
-        <f>20*M57</f>
+        <f>20*M54</f>
         <v>20</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I61" s="1">
         <v>5</v>
       </c>
       <c r="J61" s="1">
-        <v>4012</v>
+        <v>4001</v>
       </c>
       <c r="K61" s="1">
-        <v>200</v>
+        <v>1000000</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
       <c r="M61" s="1">
@@ -3342,35 +3321,35 @@
     </row>
     <row r="62" customHeight="1" spans="3:13">
       <c r="C62" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
       </c>
       <c r="E62" s="4">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="1">
-        <f>2*M57</f>
-        <v>2</v>
+        <f>20*M54</f>
+        <v>20</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I62" s="1">
         <v>5</v>
       </c>
       <c r="J62" s="1">
-        <v>4011</v>
+        <v>4002</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>6000000</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
       <c r="M62" s="1">
@@ -3379,147 +3358,147 @@
     </row>
     <row r="63" customHeight="1" spans="3:13">
       <c r="C63" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F63" s="1">
+        <f>20*M63</f>
+        <v>80</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K63" s="1">
+        <v>5</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" si="3"/>
+        <v>320000</v>
+      </c>
+      <c r="M63" s="1">
         <v>4</v>
-      </c>
-      <c r="E63" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F63" s="1">
-        <f>10*M57</f>
-        <v>10</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I63" s="1">
-        <v>5</v>
-      </c>
-      <c r="J63" s="1">
-        <v>4102</v>
-      </c>
-      <c r="K63" s="1">
-        <v>20</v>
-      </c>
-      <c r="L63" s="1">
-        <f t="shared" si="4"/>
-        <v>30000</v>
-      </c>
-      <c r="M63" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:13">
       <c r="C64" s="1">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>800</v>
+      </c>
+      <c r="F64" s="1">
+        <f>300*M63</f>
+        <v>1200</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="1">
+      <c r="I64" s="1">
+        <v>5</v>
+      </c>
+      <c r="J64" s="1">
+        <v>4007</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L64" s="1">
+        <f t="shared" si="3"/>
+        <v>960000</v>
+      </c>
+      <c r="M64" s="1">
         <v>4</v>
-      </c>
-      <c r="E64" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F64" s="1">
-        <f>20*M57</f>
-        <v>20</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I64" s="1">
-        <v>5</v>
-      </c>
-      <c r="J64" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K64" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L64" s="1">
-        <f t="shared" si="4"/>
-        <v>60000</v>
-      </c>
-      <c r="M64" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:13">
       <c r="C65" s="1">
+        <v>62</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>800</v>
+      </c>
+      <c r="F65" s="1">
+        <f>500*M63</f>
+        <v>2000</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="1">
+      <c r="H65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="1">
+        <v>5</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4101</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" si="3"/>
+        <v>1600000</v>
+      </c>
+      <c r="M65" s="1">
         <v>4</v>
-      </c>
-      <c r="E65" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F65" s="1">
-        <f>20*M57</f>
-        <v>20</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I65" s="1">
-        <v>5</v>
-      </c>
-      <c r="J65" s="1">
-        <v>4002</v>
-      </c>
-      <c r="K65" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="L65" s="1">
-        <f t="shared" si="4"/>
-        <v>60000</v>
-      </c>
-      <c r="M65" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:13">
       <c r="C66" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
       </c>
       <c r="E66" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F66" s="1">
-        <f>20*M66</f>
-        <v>80</v>
+        <f>5*M63</f>
+        <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I66" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J66" s="1">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="K66" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="4"/>
-        <v>320000</v>
+        <f t="shared" si="3"/>
+        <v>160000</v>
       </c>
       <c r="M66" s="1">
         <v>4</v>
@@ -3527,36 +3506,36 @@
     </row>
     <row r="67" customHeight="1" spans="3:13">
       <c r="C67" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
       </c>
       <c r="E67" s="1">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="F67" s="1">
-        <f>300*M66</f>
-        <v>1200</v>
+        <f>20*M63</f>
+        <v>80</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I67" s="1">
         <v>5</v>
       </c>
       <c r="J67" s="1">
-        <v>4007</v>
+        <v>4012</v>
       </c>
       <c r="K67" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="4"/>
-        <v>960000</v>
+        <f t="shared" si="3"/>
+        <v>320000</v>
       </c>
       <c r="M67" s="1">
         <v>4</v>
@@ -3564,36 +3543,36 @@
     </row>
     <row r="68" customHeight="1" spans="3:13">
       <c r="C68" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
       </c>
       <c r="E68" s="1">
-        <v>800</v>
+        <v>40000</v>
       </c>
       <c r="F68" s="1">
-        <f>500*M66</f>
-        <v>2000</v>
+        <f>2*M63</f>
+        <v>8</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I68" s="1">
         <v>5</v>
       </c>
       <c r="J68" s="1">
-        <v>4101</v>
+        <v>4011</v>
       </c>
       <c r="K68" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="4"/>
-        <v>1600000</v>
+        <f t="shared" si="3"/>
+        <v>320000</v>
       </c>
       <c r="M68" s="1">
         <v>4</v>
@@ -3601,35 +3580,35 @@
     </row>
     <row r="69" customHeight="1" spans="3:13">
       <c r="C69" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
       </c>
       <c r="E69" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F69" s="1">
-        <f>5*M66</f>
+        <f>10*M63</f>
+        <v>40</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69" s="1">
+        <v>5</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K69" s="1">
         <v>20</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I69" s="1">
-        <v>15</v>
-      </c>
-      <c r="J69" s="1">
-        <v>4014</v>
-      </c>
-      <c r="K69" s="1">
-        <v>100</v>
-      </c>
       <c r="L69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>160000</v>
       </c>
       <c r="M69" s="1">
@@ -3638,7 +3617,7 @@
     </row>
     <row r="70" customHeight="1" spans="3:13">
       <c r="C70" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -3647,26 +3626,26 @@
         <v>4000</v>
       </c>
       <c r="F70" s="1">
-        <f>20*M66</f>
+        <f>20*M63</f>
         <v>80</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I70" s="1">
         <v>5</v>
       </c>
       <c r="J70" s="1">
-        <v>4012</v>
+        <v>4001</v>
       </c>
       <c r="K70" s="1">
-        <v>200</v>
+        <v>1000000</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>320000</v>
       </c>
       <c r="M70" s="1">
@@ -3675,196 +3654,241 @@
     </row>
     <row r="71" customHeight="1" spans="3:13">
       <c r="C71" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
       </c>
       <c r="E71" s="1">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F71" s="1">
-        <f>2*M66</f>
-        <v>8</v>
+        <f>20*M63</f>
+        <v>80</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I71" s="1">
         <v>5</v>
       </c>
       <c r="J71" s="1">
-        <v>4011</v>
+        <v>4002</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>6000000</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>320000</v>
       </c>
       <c r="M71" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="3:13">
-      <c r="C72" s="1">
-        <v>66</v>
-      </c>
-      <c r="D72" s="1">
-        <v>5</v>
-      </c>
-      <c r="E72" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F72" s="1">
-        <f>10*M66</f>
-        <v>40</v>
-      </c>
-      <c r="G72" s="1" t="s">
+    <row r="74" customHeight="1" spans="3:12">
+      <c r="C74" s="1">
+        <v>99</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="1">
+        <v>100</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I74" s="1">
+        <v>5</v>
+      </c>
+      <c r="J74" s="1">
+        <v>4006</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L74" s="1">
+        <f>E74*F74</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>20</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>36000</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I72" s="1">
-        <v>5</v>
-      </c>
-      <c r="J72" s="1">
-        <v>4102</v>
-      </c>
-      <c r="K72" s="1">
+      <c r="I75" s="1">
+        <v>4</v>
+      </c>
+      <c r="J75" s="1">
+        <v>19</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
+        <f>E75*F75</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>48000</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4</v>
+      </c>
+      <c r="J76" s="1">
         <v>20</v>
       </c>
-      <c r="L72" s="1">
-        <f t="shared" si="4"/>
-        <v>160000</v>
-      </c>
-      <c r="M72" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:13">
-      <c r="C73" s="1">
-        <v>67</v>
-      </c>
-      <c r="D73" s="1">
-        <v>5</v>
-      </c>
-      <c r="E73" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F73" s="1">
-        <f>20*M66</f>
-        <v>80</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="1">
-        <v>5</v>
-      </c>
-      <c r="J73" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K73" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L73" s="1">
-        <f t="shared" si="4"/>
-        <v>320000</v>
-      </c>
-      <c r="M73" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:13">
-      <c r="C74" s="1">
-        <v>68</v>
-      </c>
-      <c r="D74" s="1">
-        <v>5</v>
-      </c>
-      <c r="E74" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F74" s="1">
-        <f>20*M66</f>
-        <v>80</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I74" s="1">
-        <v>5</v>
-      </c>
-      <c r="J74" s="1">
-        <v>4002</v>
-      </c>
-      <c r="K74" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="L74" s="1">
-        <f t="shared" si="4"/>
-        <v>320000</v>
-      </c>
-      <c r="M74" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:12">
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1">
+        <f>E76*F76</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C77" s="1">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>49</v>
+      <c r="E77" s="1">
+        <v>50000</v>
       </c>
       <c r="F77" s="1">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I77" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1">
-        <v>4006</v>
+        <v>107</v>
       </c>
       <c r="K77" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1">
         <f>E77*F77</f>
-        <v>499000</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:2">
-      <c r="A84" s="1" t="s">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:12">
+      <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>23</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" s="1">
+        <v>4</v>
+      </c>
+      <c r="J78" s="1">
+        <v>108</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1">
+        <f>E78*F78</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 E4 F4 G4 E5 F5 G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:G3 F4:G4 F5:G5 E4:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,E3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>特戒自选</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>兑换神技自选*1</t>
+  </si>
+  <si>
+    <t>神技自选</t>
   </si>
   <si>
     <t>兑换专属之心*5</t>
@@ -1286,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1408,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -1427,7 +1436,7 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:L9" si="0">E6*F6</f>
-        <v>11400</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:12">
@@ -1441,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
@@ -1460,7 +1469,7 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
@@ -1474,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -1493,7 +1502,7 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
@@ -1558,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L20" si="1">E10*F10</f>
+        <f t="shared" ref="L10:L25" si="1">E10*F10</f>
         <v>12000</v>
       </c>
     </row>
@@ -1921,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1">
-        <f>E21*F21</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
@@ -1954,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <f>E22*F22</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -1987,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="1">
-        <f>E23*F23</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -2020,223 +2029,219 @@
         <v>1</v>
       </c>
       <c r="L24" s="1">
-        <f>E24*F24</f>
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:13">
-      <c r="C26" s="1">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>500</v>
-      </c>
-      <c r="F26" s="1">
-        <f>20*M26</f>
+    <row r="25" customHeight="1" spans="3:12">
+      <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="1">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K26" s="1">
-        <v>5</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" ref="L26:L34" si="2">E26*F26</f>
-        <v>10000</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>26</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>50000</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:13">
       <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>500</v>
+      </c>
+      <c r="F27" s="1">
+        <f>20*M27</f>
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ref="L27:L35" si="2">E27*F27</f>
+        <v>10000</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:13">
+      <c r="C28" s="1">
         <v>25</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <v>100</v>
       </c>
-      <c r="F27" s="1">
-        <f>300*M26</f>
+      <c r="F28" s="1">
+        <f>300*M27</f>
         <v>300</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="1">
-        <v>5</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
         <v>4007</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <v>1000</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L28" s="1">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:13">
-      <c r="C28" s="1">
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:13">
+      <c r="C29" s="1">
         <v>26</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>100</v>
       </c>
-      <c r="F28" s="1">
-        <f>500*M26</f>
+      <c r="F29" s="1">
+        <f>500*M27</f>
         <v>500</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="1">
-        <v>5</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="G29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
         <v>4101</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K29" s="1">
         <v>1000</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L29" s="1">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:13">
-      <c r="C29" s="1">
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:13">
+      <c r="C30" s="1">
         <v>27</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>1000</v>
       </c>
-      <c r="F29" s="1">
-        <f>5*M26</f>
-        <v>5</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="F30" s="1">
+        <f>5*M27</f>
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1">
         <v>15</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30" s="1">
         <v>4014</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>100</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L30" s="1">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:13">
-      <c r="C30" s="1">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>500</v>
-      </c>
-      <c r="F30" s="1">
-        <f>20*M26</f>
-        <v>20</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="1">
-        <v>5</v>
-      </c>
-      <c r="J30" s="1">
-        <v>4012</v>
-      </c>
-      <c r="K30" s="1">
-        <v>200</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
       <c r="M30" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:13">
       <c r="C31" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F31" s="1">
-        <f>2*M26</f>
-        <v>2</v>
+        <f>20*M27</f>
+        <v>20</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I31" s="1">
         <v>5</v>
       </c>
       <c r="J31" s="1">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="2"/>
@@ -2248,36 +2253,36 @@
     </row>
     <row r="32" customHeight="1" spans="3:13">
       <c r="C32" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F32" s="1">
-        <f>10*M26</f>
-        <v>10</v>
+        <f>2*M27</f>
+        <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I32" s="1">
         <v>5</v>
       </c>
       <c r="J32" s="1">
-        <v>4102</v>
+        <v>4011</v>
       </c>
       <c r="K32" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -2285,7 +2290,7 @@
     </row>
     <row r="33" customHeight="1" spans="3:13">
       <c r="C33" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -2294,27 +2299,27 @@
         <v>500</v>
       </c>
       <c r="F33" s="1">
-        <f>20*M26</f>
+        <f>10*M27</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K33" s="1">
         <v>20</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="1">
-        <v>5</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1000000</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -2322,7 +2327,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:13">
       <c r="C34" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -2331,23 +2336,23 @@
         <v>500</v>
       </c>
       <c r="F34" s="1">
-        <f>20*M26</f>
+        <f>20*M27</f>
         <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" s="1">
         <v>5</v>
       </c>
       <c r="J34" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K34" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="2"/>
@@ -2357,219 +2362,219 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:13">
-      <c r="C36" s="1">
-        <v>33</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F36" s="1">
-        <f>20*M36</f>
+    <row r="35" customHeight="1" spans="3:13">
+      <c r="C35" s="1">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>500</v>
+      </c>
+      <c r="F35" s="1">
+        <f>20*M27</f>
         <v>20</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="1">
-        <v>5</v>
-      </c>
-      <c r="J36" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K36" s="1">
-        <v>5</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" ref="L36:L71" si="3">E36*F36</f>
-        <v>20000</v>
-      </c>
-      <c r="M36" s="1">
+      <c r="G35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4002</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="M35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:13">
       <c r="C37" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
       </c>
       <c r="E37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="1">
+        <f>20*M37</f>
+        <v>20</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" ref="L37:L72" si="3">E37*F37</f>
+        <v>20000</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:13">
+      <c r="C38" s="1">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
         <v>200</v>
       </c>
-      <c r="F37" s="1">
-        <f>300*M36</f>
+      <c r="F38" s="1">
+        <f>300*M37</f>
         <v>300</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="1">
-        <v>5</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="G38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1">
         <v>4007</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K38" s="1">
         <v>1000</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L38" s="1">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:13">
-      <c r="C38" s="1">
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:13">
+      <c r="C39" s="1">
         <v>35</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <v>200</v>
       </c>
-      <c r="F38" s="1">
-        <f>500*M36</f>
+      <c r="F39" s="1">
+        <f>500*M37</f>
         <v>500</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="1">
-        <v>5</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="G39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
         <v>4101</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K39" s="1">
         <v>1000</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L39" s="1">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:13">
-      <c r="C39" s="1">
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:13">
+      <c r="C40" s="1">
         <v>36</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>2000</v>
       </c>
-      <c r="F39" s="1">
-        <f>5*M36</f>
-        <v>5</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="F40" s="1">
+        <f>5*M37</f>
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="1">
         <v>15</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J40" s="1">
         <v>4014</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K40" s="1">
         <v>100</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L40" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:13">
-      <c r="C40" s="1">
-        <v>37</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F40" s="1">
-        <f>20*M36</f>
-        <v>20</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="1">
-        <v>5</v>
-      </c>
-      <c r="J40" s="1">
-        <v>4012</v>
-      </c>
-      <c r="K40" s="1">
-        <v>200</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
       <c r="M40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:13">
       <c r="C41" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
       </c>
       <c r="E41" s="4">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="1">
-        <f>2*M36</f>
-        <v>2</v>
+        <f>20*M37</f>
+        <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I41" s="1">
         <v>5</v>
       </c>
       <c r="J41" s="1">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="3"/>
@@ -2581,36 +2586,36 @@
     </row>
     <row r="42" customHeight="1" spans="3:13">
       <c r="C42" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
       </c>
       <c r="E42" s="4">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F42" s="1">
-        <f>10*M36</f>
-        <v>10</v>
+        <f>2*M37</f>
+        <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I42" s="1">
         <v>5</v>
       </c>
       <c r="J42" s="1">
-        <v>4102</v>
+        <v>4011</v>
       </c>
       <c r="K42" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -2618,7 +2623,7 @@
     </row>
     <row r="43" customHeight="1" spans="3:13">
       <c r="C43" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -2627,27 +2632,27 @@
         <v>1000</v>
       </c>
       <c r="F43" s="1">
-        <f>20*M36</f>
+        <f>10*M37</f>
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K43" s="1">
         <v>20</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="1">
-        <v>5</v>
-      </c>
-      <c r="J43" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1000000</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -2655,7 +2660,7 @@
     </row>
     <row r="44" customHeight="1" spans="3:13">
       <c r="C44" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -2664,23 +2669,23 @@
         <v>1000</v>
       </c>
       <c r="F44" s="1">
-        <f>20*M36</f>
+        <f>20*M37</f>
         <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" s="1">
         <v>5</v>
       </c>
       <c r="J44" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K44" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="3"/>
@@ -2692,36 +2697,36 @@
     </row>
     <row r="45" customHeight="1" spans="3:13">
       <c r="C45" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2000</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1000</v>
       </c>
       <c r="F45" s="1">
-        <f>20*M45</f>
+        <f>20*M37</f>
         <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I45" s="1">
         <v>5</v>
       </c>
       <c r="J45" s="1">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="K45" s="1">
-        <v>5</v>
+        <v>6000000</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -2729,36 +2734,36 @@
     </row>
     <row r="46" customHeight="1" spans="3:13">
       <c r="C46" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="F46" s="1">
-        <f>300*M45</f>
-        <v>300</v>
+        <f>20*M46</f>
+        <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I46" s="1">
         <v>5</v>
       </c>
       <c r="J46" s="1">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="K46" s="1">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -2766,7 +2771,7 @@
     </row>
     <row r="47" customHeight="1" spans="3:13">
       <c r="C47" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -2775,27 +2780,27 @@
         <v>400</v>
       </c>
       <c r="F47" s="1">
-        <f>500*M45</f>
-        <v>500</v>
+        <f>300*M46</f>
+        <v>300</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I47" s="1">
         <v>5</v>
       </c>
       <c r="J47" s="1">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="K47" s="1">
         <v>1000</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="3"/>
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
@@ -2803,36 +2808,36 @@
     </row>
     <row r="48" customHeight="1" spans="3:13">
       <c r="C48" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="F48" s="1">
-        <f>5*M45</f>
-        <v>5</v>
+        <f>500*M46</f>
+        <v>500</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I48" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J48" s="1">
-        <v>4014</v>
+        <v>4101</v>
       </c>
       <c r="K48" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -2840,36 +2845,36 @@
     </row>
     <row r="49" customHeight="1" spans="3:13">
       <c r="C49" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F49" s="1">
-        <f>20*M45</f>
-        <v>20</v>
+        <f>5*M46</f>
+        <v>5</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I49" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J49" s="1">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="K49" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
@@ -2877,32 +2882,32 @@
     </row>
     <row r="50" customHeight="1" spans="3:13">
       <c r="C50" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F50" s="1">
-        <f>2*M45</f>
-        <v>2</v>
+        <f>20*M46</f>
+        <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I50" s="1">
         <v>5</v>
       </c>
       <c r="J50" s="1">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="3"/>
@@ -2914,36 +2919,36 @@
     </row>
     <row r="51" customHeight="1" spans="3:13">
       <c r="C51" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F51" s="1">
-        <f>10*M45</f>
-        <v>10</v>
+        <f>2*M46</f>
+        <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I51" s="1">
         <v>5</v>
       </c>
       <c r="J51" s="1">
-        <v>4102</v>
+        <v>4011</v>
       </c>
       <c r="K51" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -2951,7 +2956,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:13">
       <c r="C52" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -2960,27 +2965,27 @@
         <v>2000</v>
       </c>
       <c r="F52" s="1">
-        <f>20*M45</f>
+        <f>10*M46</f>
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K52" s="1">
         <v>20</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="1">
-        <v>5</v>
-      </c>
-      <c r="J52" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1000000</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M52" s="1">
         <v>1</v>
@@ -2988,7 +2993,7 @@
     </row>
     <row r="53" customHeight="1" spans="3:13">
       <c r="C53" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -2997,23 +3002,23 @@
         <v>2000</v>
       </c>
       <c r="F53" s="1">
-        <f>20*M45</f>
+        <f>20*M46</f>
         <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I53" s="1">
         <v>5</v>
       </c>
       <c r="J53" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K53" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="3"/>
@@ -3025,36 +3030,36 @@
     </row>
     <row r="54" customHeight="1" spans="3:13">
       <c r="C54" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" s="1">
-        <v>4</v>
-      </c>
-      <c r="E54" s="4">
-        <v>3000</v>
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2000</v>
       </c>
       <c r="F54" s="1">
-        <f>20*M54</f>
+        <f>20*M46</f>
         <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I54" s="1">
         <v>5</v>
       </c>
       <c r="J54" s="1">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="K54" s="1">
-        <v>5</v>
+        <v>6000000</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M54" s="1">
         <v>1</v>
@@ -3062,36 +3067,36 @@
     </row>
     <row r="55" customHeight="1" spans="3:13">
       <c r="C55" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
       </c>
       <c r="E55" s="4">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F55" s="1">
-        <f>300*M54</f>
-        <v>300</v>
+        <f>20*M55</f>
+        <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I55" s="1">
         <v>5</v>
       </c>
       <c r="J55" s="1">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="K55" s="1">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="3"/>
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="M55" s="1">
         <v>1</v>
@@ -3099,7 +3104,7 @@
     </row>
     <row r="56" customHeight="1" spans="3:13">
       <c r="C56" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -3108,27 +3113,27 @@
         <v>600</v>
       </c>
       <c r="F56" s="1">
-        <f>500*M54</f>
-        <v>500</v>
+        <f>300*M55</f>
+        <v>300</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I56" s="1">
         <v>5</v>
       </c>
       <c r="J56" s="1">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="K56" s="1">
         <v>1000</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="3"/>
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
@@ -3136,36 +3141,36 @@
     </row>
     <row r="57" customHeight="1" spans="3:13">
       <c r="C57" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
       </c>
       <c r="E57" s="4">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="F57" s="1">
-        <f>5*M54</f>
-        <v>5</v>
+        <f>500*M55</f>
+        <v>500</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I57" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1">
-        <v>4014</v>
+        <v>4101</v>
       </c>
       <c r="K57" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="M57" s="1">
         <v>1</v>
@@ -3173,36 +3178,36 @@
     </row>
     <row r="58" customHeight="1" spans="3:13">
       <c r="C58" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
       </c>
       <c r="E58" s="4">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F58" s="1">
-        <f>20*M54</f>
-        <v>20</v>
+        <f>5*M55</f>
+        <v>5</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I58" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J58" s="1">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="K58" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="M58" s="1">
         <v>1</v>
@@ -3210,32 +3215,32 @@
     </row>
     <row r="59" customHeight="1" spans="3:13">
       <c r="C59" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
       </c>
       <c r="E59" s="4">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F59" s="1">
-        <f>2*M54</f>
-        <v>2</v>
+        <f>20*M55</f>
+        <v>20</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I59" s="1">
         <v>5</v>
       </c>
       <c r="J59" s="1">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="3"/>
@@ -3247,36 +3252,36 @@
     </row>
     <row r="60" customHeight="1" spans="3:13">
       <c r="C60" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
       </c>
       <c r="E60" s="4">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="F60" s="1">
-        <f>10*M54</f>
-        <v>10</v>
+        <f>2*M55</f>
+        <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I60" s="1">
         <v>5</v>
       </c>
       <c r="J60" s="1">
-        <v>4102</v>
+        <v>4011</v>
       </c>
       <c r="K60" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
@@ -3284,7 +3289,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:13">
       <c r="C61" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
@@ -3293,27 +3298,27 @@
         <v>3000</v>
       </c>
       <c r="F61" s="1">
-        <f>20*M54</f>
+        <f>10*M55</f>
+        <v>10</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61" s="1">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K61" s="1">
         <v>20</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I61" s="1">
-        <v>5</v>
-      </c>
-      <c r="J61" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K61" s="1">
-        <v>1000000</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="M61" s="1">
         <v>1</v>
@@ -3321,7 +3326,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:13">
       <c r="C62" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -3330,23 +3335,23 @@
         <v>3000</v>
       </c>
       <c r="F62" s="1">
-        <f>20*M54</f>
+        <f>20*M55</f>
         <v>20</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I62" s="1">
         <v>5</v>
       </c>
       <c r="J62" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K62" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="3"/>
@@ -3358,73 +3363,73 @@
     </row>
     <row r="63" customHeight="1" spans="3:13">
       <c r="C63" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="1">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1">
-        <v>4000</v>
+        <v>4</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3000</v>
       </c>
       <c r="F63" s="1">
-        <f>20*M63</f>
-        <v>80</v>
+        <f>20*M55</f>
+        <v>20</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I63" s="1">
         <v>5</v>
       </c>
       <c r="J63" s="1">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="K63" s="1">
-        <v>5</v>
+        <v>6000000</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="3"/>
-        <v>320000</v>
+        <v>60000</v>
       </c>
       <c r="M63" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:13">
       <c r="C64" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1">
         <v>5</v>
       </c>
       <c r="E64" s="1">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="F64" s="1">
-        <f>300*M63</f>
-        <v>1200</v>
+        <f>20*M64</f>
+        <v>80</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I64" s="1">
         <v>5</v>
       </c>
       <c r="J64" s="1">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="K64" s="1">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="3"/>
-        <v>960000</v>
+        <v>320000</v>
       </c>
       <c r="M64" s="1">
         <v>4</v>
@@ -3432,7 +3437,7 @@
     </row>
     <row r="65" customHeight="1" spans="3:13">
       <c r="C65" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" s="1">
         <v>5</v>
@@ -3441,27 +3446,27 @@
         <v>800</v>
       </c>
       <c r="F65" s="1">
-        <f>500*M63</f>
-        <v>2000</v>
+        <f>300*M64</f>
+        <v>1200</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I65" s="1">
         <v>5</v>
       </c>
       <c r="J65" s="1">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="K65" s="1">
         <v>1000</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="3"/>
-        <v>1600000</v>
+        <v>960000</v>
       </c>
       <c r="M65" s="1">
         <v>4</v>
@@ -3469,36 +3474,36 @@
     </row>
     <row r="66" customHeight="1" spans="3:13">
       <c r="C66" s="1">
+        <v>62</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>800</v>
+      </c>
+      <c r="F66" s="1">
+        <f>500*M64</f>
+        <v>2000</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="1">
-        <v>5</v>
-      </c>
-      <c r="E66" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F66" s="1">
-        <f>5*M63</f>
-        <v>20</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I66" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J66" s="1">
-        <v>4014</v>
+        <v>4101</v>
       </c>
       <c r="K66" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>1600000</v>
       </c>
       <c r="M66" s="1">
         <v>4</v>
@@ -3506,36 +3511,36 @@
     </row>
     <row r="67" customHeight="1" spans="3:13">
       <c r="C67" s="1">
+        <v>63</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F67" s="1">
+        <f>5*M64</f>
+        <v>20</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="1">
-        <v>5</v>
-      </c>
-      <c r="E67" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F67" s="1">
-        <f>20*M63</f>
-        <v>80</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I67" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J67" s="1">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="K67" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="3"/>
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="M67" s="1">
         <v>4</v>
@@ -3543,32 +3548,32 @@
     </row>
     <row r="68" customHeight="1" spans="3:13">
       <c r="C68" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
       </c>
       <c r="E68" s="1">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F68" s="1">
-        <f>2*M63</f>
-        <v>8</v>
+        <f>20*M64</f>
+        <v>80</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I68" s="1">
         <v>5</v>
       </c>
       <c r="J68" s="1">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="3"/>
@@ -3580,36 +3585,36 @@
     </row>
     <row r="69" customHeight="1" spans="3:13">
       <c r="C69" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
       </c>
       <c r="E69" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="F69" s="1">
-        <f>10*M63</f>
-        <v>40</v>
+        <f>2*M64</f>
+        <v>8</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I69" s="1">
         <v>5</v>
       </c>
       <c r="J69" s="1">
-        <v>4102</v>
+        <v>4011</v>
       </c>
       <c r="K69" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="M69" s="1">
         <v>4</v>
@@ -3617,7 +3622,7 @@
     </row>
     <row r="70" customHeight="1" spans="3:13">
       <c r="C70" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -3626,27 +3631,27 @@
         <v>4000</v>
       </c>
       <c r="F70" s="1">
-        <f>20*M63</f>
-        <v>80</v>
+        <f>10*M64</f>
+        <v>40</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I70" s="1">
         <v>5</v>
       </c>
       <c r="J70" s="1">
-        <v>4001</v>
+        <v>4102</v>
       </c>
       <c r="K70" s="1">
-        <v>1000000</v>
+        <v>20</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" si="3"/>
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="M70" s="1">
         <v>4</v>
@@ -3654,7 +3659,7 @@
     </row>
     <row r="71" customHeight="1" spans="3:13">
       <c r="C71" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -3663,23 +3668,23 @@
         <v>4000</v>
       </c>
       <c r="F71" s="1">
-        <f>20*M63</f>
+        <f>20*M64</f>
         <v>80</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I71" s="1">
         <v>5</v>
       </c>
       <c r="J71" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K71" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" si="3"/>
@@ -3689,76 +3694,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="3:12">
-      <c r="C74" s="1">
+    <row r="72" customHeight="1" spans="3:13">
+      <c r="C72" s="1">
+        <v>68</v>
+      </c>
+      <c r="D72" s="1">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F72" s="1">
+        <f>20*M64</f>
+        <v>80</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="1">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>4002</v>
+      </c>
+      <c r="K72" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="3"/>
+        <v>320000</v>
+      </c>
+      <c r="M72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:12">
+      <c r="C75" s="1">
         <v>99</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F74" s="1">
-        <v>100</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I74" s="1">
-        <v>5</v>
-      </c>
-      <c r="J74" s="1">
-        <v>4006</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L74" s="1">
-        <f>E74*F74</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:12">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1">
-        <v>20</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
-      <c r="E75" s="1">
-        <v>36000</v>
+      <c r="E75" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I75" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J75" s="1">
-        <v>19</v>
+        <v>4006</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L75" s="1">
         <f>E75*F75</f>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:12">
@@ -3769,35 +3772,35 @@
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>48000</v>
+        <v>36000</v>
       </c>
       <c r="F76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I76" s="1">
         <v>4</v>
       </c>
       <c r="J76" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K76" s="1">
         <v>1</v>
       </c>
       <c r="L76" s="1">
         <f>E76*F76</f>
-        <v>48000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:12">
@@ -3808,35 +3811,35 @@
         <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I77" s="1">
         <v>4</v>
       </c>
       <c r="J77" s="1">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="K77" s="1">
         <v>1</v>
       </c>
       <c r="L77" s="1">
         <f>E77*F77</f>
-        <v>50000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:12">
@@ -3847,48 +3850,87 @@
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I78" s="1">
         <v>4</v>
       </c>
       <c r="J78" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
       </c>
       <c r="L78" s="1">
         <f>E78*F78</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>23</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79" s="1">
+        <v>4</v>
+      </c>
+      <c r="J79" s="1">
+        <v>108</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1">
+        <f>E79*F79</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:G3 F4:G4 F5:G5 E4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,E3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -1297,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1417,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:L9" si="0">E6*F6</f>
-        <v>8400</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:12">
@@ -1450,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
@@ -1483,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
@@ -1516,7 +1516,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:12">
@@ -1549,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" ref="L10:L25" si="1">E10*F10</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:12">
@@ -1582,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:12">
@@ -1615,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>26</v>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:12">
@@ -1648,7 +1648,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>28</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:12">
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>30</v>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:12">
@@ -1714,7 +1714,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>32</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:12">
@@ -1747,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>34</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:12">
@@ -1780,7 +1780,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>36</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:12">
@@ -1813,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>38</v>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="L18" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:12">
@@ -1846,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:12">
@@ -1879,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>42</v>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:12">
@@ -2011,7 +2011,7 @@
         <v>52</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>53</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:12">
@@ -2044,7 +2044,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>56</v>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:13">
@@ -2262,8 +2262,8 @@
         <v>5000</v>
       </c>
       <c r="F32" s="1">
-        <f>2*M27</f>
-        <v>2</v>
+        <f>3*M27</f>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>68</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="L32" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -2595,8 +2595,8 @@
         <v>10000</v>
       </c>
       <c r="F42" s="1">
-        <f>2*M37</f>
-        <v>2</v>
+        <f>3*M37</f>
+        <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>68</v>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="L42" s="1">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -2928,8 +2928,8 @@
         <v>20000</v>
       </c>
       <c r="F51" s="1">
-        <f>2*M46</f>
-        <v>2</v>
+        <f>3*M46</f>
+        <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>68</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="L51" s="1">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -3261,8 +3261,8 @@
         <v>30000</v>
       </c>
       <c r="F60" s="1">
-        <f>2*M55</f>
-        <v>2</v>
+        <f>3*M55</f>
+        <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>68</v>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="L60" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
@@ -3594,8 +3594,8 @@
         <v>40000</v>
       </c>
       <c r="F69" s="1">
-        <f>2*M64</f>
-        <v>8</v>
+        <f>3*M64</f>
+        <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>68</v>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="L69" s="1">
         <f t="shared" si="3"/>
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="M69" s="1">
         <v>4</v>

--- a/Excel/FestiveConfig.xlsx
+++ b/Excel/FestiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -203,6 +203,15 @@
     <t>神技自选</t>
   </si>
   <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>兑换法宝自选*1</t>
+  </si>
+  <si>
+    <t>法宝自选</t>
+  </si>
+  <si>
     <t>兑换专属之心*5</t>
   </si>
   <si>
@@ -261,30 +270,6 @@
   </si>
   <si>
     <t>书页</t>
-  </si>
-  <si>
-    <t>兑换前5神技自选*1</t>
-  </si>
-  <si>
-    <t>前5神技自选</t>
-  </si>
-  <si>
-    <t>兑换后5神技自选*1</t>
-  </si>
-  <si>
-    <t>后5神技自选</t>
-  </si>
-  <si>
-    <t>兑换初级法宝自选*1</t>
-  </si>
-  <si>
-    <t>初级法宝自选</t>
-  </si>
-  <si>
-    <t>兑换高级法宝自选*1</t>
-  </si>
-  <si>
-    <t>高级法宝自选</t>
   </si>
 </sst>
 </file>
@@ -1295,10 +1280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M82"/>
+  <dimension ref="C1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1417,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -1436,7 +1421,7 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:L9" si="0">E6*F6</f>
-        <v>26400</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:12">
@@ -1450,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
@@ -1469,7 +1454,7 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>26400</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
@@ -1483,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -1502,7 +1487,7 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>17400</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
@@ -1516,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
@@ -1535,7 +1520,7 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:12">
@@ -1567,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L25" si="1">E10*F10</f>
+        <f t="shared" ref="L10:L26" si="1">E10*F10</f>
         <v>24000</v>
       </c>
     </row>
@@ -2011,7 +1996,7 @@
         <v>52</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>53</v>
@@ -2030,7 +2015,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="1"/>
-        <v>300000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:12">
@@ -2044,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>56</v>
@@ -2063,308 +2048,304 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:13">
-      <c r="C27" s="1">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>500</v>
-      </c>
-      <c r="F27" s="1">
-        <f>20*M27</f>
-        <v>20</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:12">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="1">
-        <v>5</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K27" s="1">
-        <v>5</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" ref="L27:L35" si="2">E27*F27</f>
-        <v>10000</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
+      <c r="H26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>25</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>200000</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:13">
       <c r="C28" s="1">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>500</v>
+      </c>
+      <c r="F28" s="1">
+        <f>20*M28</f>
+        <v>20</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28:L36" si="2">E28*F28</f>
+        <v>10000</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:13">
+      <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>100</v>
       </c>
-      <c r="F28" s="1">
-        <f>300*M27</f>
+      <c r="F29" s="1">
+        <f>300*M28</f>
         <v>300</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="1">
-        <v>5</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="G29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
         <v>4007</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K29" s="1">
         <v>1000</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L29" s="1">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:13">
-      <c r="C29" s="1">
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:13">
+      <c r="C30" s="1">
         <v>26</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>100</v>
       </c>
-      <c r="F29" s="1">
-        <f>500*M27</f>
+      <c r="F30" s="1">
+        <f>500*M28</f>
         <v>500</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="1">
-        <v>5</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="G30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1">
         <v>4101</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>1000</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L30" s="1">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:13">
-      <c r="C30" s="1">
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:13">
+      <c r="C31" s="1">
         <v>27</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>1000</v>
       </c>
-      <c r="F30" s="1">
-        <f>5*M27</f>
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="F31" s="1">
+        <f>5*M28</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="1">
         <v>15</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J31" s="1">
         <v>4014</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K31" s="1">
         <v>100</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L31" s="1">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:13">
-      <c r="C31" s="1">
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:13">
+      <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
         <v>500</v>
       </c>
-      <c r="F31" s="1">
-        <f>20*M27</f>
+      <c r="F32" s="1">
+        <f>20*M28</f>
         <v>20</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="1">
-        <v>5</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="G32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1">
         <v>4012</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K32" s="1">
         <v>200</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L32" s="1">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:13">
-      <c r="C32" s="1">
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:13">
+      <c r="C33" s="1">
         <v>29</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>5000</v>
       </c>
-      <c r="F32" s="1">
-        <f>3*M27</f>
+      <c r="F33" s="1">
+        <f>3*M28</f>
         <v>3</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="1">
-        <v>5</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="G33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
         <v>4011</v>
       </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:13">
-      <c r="C33" s="1">
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:13">
+      <c r="C34" s="1">
         <v>30</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
         <v>500</v>
       </c>
-      <c r="F33" s="1">
-        <f>10*M27</f>
+      <c r="F34" s="1">
+        <f>10*M28</f>
         <v>10</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" s="1">
-        <v>5</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="G34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1">
         <v>4102</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <v>20</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L34" s="1">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:13">
-      <c r="C34" s="1">
-        <v>31</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>500</v>
-      </c>
-      <c r="F34" s="1">
-        <f>20*M27</f>
-        <v>20</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="1">
-        <v>5</v>
-      </c>
-      <c r="J34" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
       <c r="M34" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:13">
       <c r="C35" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -2373,23 +2354,23 @@
         <v>500</v>
       </c>
       <c r="F35" s="1">
-        <f>20*M27</f>
+        <f>20*M28</f>
         <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" s="1">
         <v>5</v>
       </c>
       <c r="J35" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K35" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="2"/>
@@ -2399,305 +2380,305 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="3:13">
-      <c r="C37" s="1">
-        <v>33</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F37" s="1">
-        <f>20*M37</f>
+    <row r="36" customHeight="1" spans="3:13">
+      <c r="C36" s="1">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>500</v>
+      </c>
+      <c r="F36" s="1">
+        <f>20*M28</f>
         <v>20</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="1">
-        <v>5</v>
-      </c>
-      <c r="J37" s="1">
-        <v>4010</v>
-      </c>
-      <c r="K37" s="1">
-        <v>5</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" ref="L37:L72" si="3">E37*F37</f>
-        <v>20000</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="G36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4002</v>
+      </c>
+      <c r="K36" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="M36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:13">
       <c r="C38" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="E38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="1">
+        <f>20*M38</f>
+        <v>20</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4010</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" ref="L38:L73" si="3">E38*F38</f>
+        <v>20000</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:13">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
         <v>200</v>
       </c>
-      <c r="F38" s="1">
-        <f>300*M37</f>
+      <c r="F39" s="1">
+        <f>300*M38</f>
         <v>300</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="1">
-        <v>5</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="G39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
         <v>4007</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K39" s="1">
         <v>1000</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L39" s="1">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:13">
-      <c r="C39" s="1">
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:13">
+      <c r="C40" s="1">
         <v>35</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>200</v>
       </c>
-      <c r="F39" s="1">
-        <f>500*M37</f>
+      <c r="F40" s="1">
+        <f>500*M38</f>
         <v>500</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" s="1">
-        <v>5</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="G40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1">
         <v>4101</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K40" s="1">
         <v>1000</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L40" s="1">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:13">
-      <c r="C40" s="1">
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:13">
+      <c r="C41" s="1">
         <v>36</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <v>2000</v>
       </c>
-      <c r="F40" s="1">
-        <f>5*M37</f>
-        <v>5</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="F41" s="1">
+        <f>5*M38</f>
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="1">
         <v>15</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J41" s="1">
         <v>4014</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K41" s="1">
         <v>100</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L41" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:13">
-      <c r="C41" s="1">
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:13">
+      <c r="C42" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>2</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <v>1000</v>
       </c>
-      <c r="F41" s="1">
-        <f>20*M37</f>
+      <c r="F42" s="1">
+        <f>20*M38</f>
         <v>20</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="1">
-        <v>5</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="G42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5</v>
+      </c>
+      <c r="J42" s="1">
         <v>4012</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K42" s="1">
         <v>200</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L42" s="1">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:13">
-      <c r="C42" s="1">
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:13">
+      <c r="C43" s="1">
         <v>38</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <v>2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>10000</v>
       </c>
-      <c r="F42" s="1">
-        <f>3*M37</f>
+      <c r="F43" s="1">
+        <f>3*M38</f>
         <v>3</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="1">
-        <v>5</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="G43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1">
         <v>4011</v>
       </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:13">
-      <c r="C43" s="1">
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:13">
+      <c r="C44" s="1">
         <v>39</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <v>1000</v>
       </c>
-      <c r="F43" s="1">
-        <f>10*M37</f>
+      <c r="F44" s="1">
+        <f>10*M38</f>
         <v>10</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="1">
-        <v>5</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="G44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1">
         <v>4102</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K44" s="1">
         <v>20</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L44" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:13">
-      <c r="C44" s="1">
-        <v>40</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="1">
-        <f>20*M37</f>
-        <v>20</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" s="1">
-        <v>5</v>
-      </c>
-      <c r="J44" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
       <c r="M44" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:13">
       <c r="C45" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -2706,23 +2687,23 @@
         <v>1000</v>
       </c>
       <c r="F45" s="1">
-        <f>20*M37</f>
+        <f>20*M38</f>
         <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I45" s="1">
         <v>5</v>
       </c>
       <c r="J45" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K45" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="3"/>
@@ -2734,36 +2715,36 @@
     </row>
     <row r="46" customHeight="1" spans="3:13">
       <c r="C46" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2000</v>
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1000</v>
       </c>
       <c r="F46" s="1">
-        <f>20*M46</f>
+        <f>20*M38</f>
         <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I46" s="1">
         <v>5</v>
       </c>
       <c r="J46" s="1">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="K46" s="1">
-        <v>5</v>
+        <v>6000000</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -2771,36 +2752,36 @@
     </row>
     <row r="47" customHeight="1" spans="3:13">
       <c r="C47" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="1">
-        <f>300*M46</f>
-        <v>300</v>
+        <f>20*M47</f>
+        <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I47" s="1">
         <v>5</v>
       </c>
       <c r="J47" s="1">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="K47" s="1">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
@@ -2808,7 +2789,7 @@
     </row>
     <row r="48" customHeight="1" spans="3:13">
       <c r="C48" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -2817,27 +2798,27 @@
         <v>400</v>
       </c>
       <c r="F48" s="1">
-        <f>500*M46</f>
-        <v>500</v>
+        <f>300*M47</f>
+        <v>300</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I48" s="1">
         <v>5</v>
       </c>
       <c r="J48" s="1">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="K48" s="1">
         <v>1000</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="3"/>
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -2845,36 +2826,36 @@
     </row>
     <row r="49" customHeight="1" spans="3:13">
       <c r="C49" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="F49" s="1">
-        <f>5*M46</f>
-        <v>5</v>
+        <f>500*M47</f>
+        <v>500</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I49" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1">
-        <v>4014</v>
+        <v>4101</v>
       </c>
       <c r="K49" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
@@ -2882,36 +2863,36 @@
     </row>
     <row r="50" customHeight="1" spans="3:13">
       <c r="C50" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F50" s="1">
-        <f>20*M46</f>
-        <v>20</v>
+        <f>5*M47</f>
+        <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I50" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J50" s="1">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="K50" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M50" s="1">
         <v>1</v>
@@ -2919,36 +2900,36 @@
     </row>
     <row r="51" customHeight="1" spans="3:13">
       <c r="C51" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F51" s="1">
-        <f>3*M46</f>
-        <v>3</v>
+        <f>20*M47</f>
+        <v>20</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I51" s="1">
         <v>5</v>
       </c>
       <c r="J51" s="1">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -2956,36 +2937,36 @@
     </row>
     <row r="52" customHeight="1" spans="3:13">
       <c r="C52" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F52" s="1">
-        <f>10*M46</f>
-        <v>10</v>
+        <f>3*M47</f>
+        <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I52" s="1">
         <v>5</v>
       </c>
       <c r="J52" s="1">
-        <v>4102</v>
+        <v>4011</v>
       </c>
       <c r="K52" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="M52" s="1">
         <v>1</v>
@@ -2993,7 +2974,7 @@
     </row>
     <row r="53" customHeight="1" spans="3:13">
       <c r="C53" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -3002,27 +2983,27 @@
         <v>2000</v>
       </c>
       <c r="F53" s="1">
-        <f>20*M46</f>
+        <f>10*M47</f>
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K53" s="1">
         <v>20</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I53" s="1">
-        <v>5</v>
-      </c>
-      <c r="J53" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1000000</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M53" s="1">
         <v>1</v>
@@ -3030,7 +3011,7 @@
     </row>
     <row r="54" customHeight="1" spans="3:13">
       <c r="C54" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -3039,23 +3020,23 @@
         <v>2000</v>
       </c>
       <c r="F54" s="1">
-        <f>20*M46</f>
+        <f>20*M47</f>
         <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I54" s="1">
         <v>5</v>
       </c>
       <c r="J54" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K54" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="3"/>
@@ -3067,36 +3048,36 @@
     </row>
     <row r="55" customHeight="1" spans="3:13">
       <c r="C55" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
-      </c>
-      <c r="E55" s="4">
-        <v>3000</v>
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2000</v>
       </c>
       <c r="F55" s="1">
-        <f>20*M55</f>
+        <f>20*M47</f>
         <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I55" s="1">
         <v>5</v>
       </c>
       <c r="J55" s="1">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="K55" s="1">
-        <v>5</v>
+        <v>6000000</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M55" s="1">
         <v>1</v>
@@ -3104,36 +3085,36 @@
     </row>
     <row r="56" customHeight="1" spans="3:13">
       <c r="C56" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
       </c>
       <c r="E56" s="4">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F56" s="1">
-        <f>300*M55</f>
-        <v>300</v>
+        <f>20*M56</f>
+        <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I56" s="1">
         <v>5</v>
       </c>
       <c r="J56" s="1">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="K56" s="1">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="3"/>
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
@@ -3141,7 +3122,7 @@
     </row>
     <row r="57" customHeight="1" spans="3:13">
       <c r="C57" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -3150,27 +3131,27 @@
         <v>600</v>
       </c>
       <c r="F57" s="1">
-        <f>500*M55</f>
-        <v>500</v>
+        <f>300*M56</f>
+        <v>300</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I57" s="1">
         <v>5</v>
       </c>
       <c r="J57" s="1">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="K57" s="1">
         <v>1000</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="3"/>
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="M57" s="1">
         <v>1</v>
@@ -3178,36 +3159,36 @@
     </row>
     <row r="58" customHeight="1" spans="3:13">
       <c r="C58" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
       </c>
       <c r="E58" s="4">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="F58" s="1">
-        <f>5*M55</f>
-        <v>5</v>
+        <f>500*M56</f>
+        <v>500</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I58" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J58" s="1">
-        <v>4014</v>
+        <v>4101</v>
       </c>
       <c r="K58" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="M58" s="1">
         <v>1</v>
@@ -3215,36 +3196,36 @@
     </row>
     <row r="59" customHeight="1" spans="3:13">
       <c r="C59" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
       </c>
       <c r="E59" s="4">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F59" s="1">
-        <f>20*M55</f>
-        <v>20</v>
+        <f>5*M56</f>
+        <v>5</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I59" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J59" s="1">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="K59" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
@@ -3252,36 +3233,36 @@
     </row>
     <row r="60" customHeight="1" spans="3:13">
       <c r="C60" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
       </c>
       <c r="E60" s="4">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F60" s="1">
-        <f>3*M55</f>
-        <v>3</v>
+        <f>20*M56</f>
+        <v>20</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I60" s="1">
         <v>5</v>
       </c>
       <c r="J60" s="1">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
@@ -3289,36 +3270,36 @@
     </row>
     <row r="61" customHeight="1" spans="3:13">
       <c r="C61" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
       </c>
       <c r="E61" s="4">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="F61" s="1">
-        <f>10*M55</f>
-        <v>10</v>
+        <f>3*M56</f>
+        <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I61" s="1">
         <v>5</v>
       </c>
       <c r="J61" s="1">
-        <v>4102</v>
+        <v>4011</v>
       </c>
       <c r="K61" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="M61" s="1">
         <v>1</v>
@@ -3326,7 +3307,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:13">
       <c r="C62" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -3335,27 +3316,27 @@
         <v>3000</v>
       </c>
       <c r="F62" s="1">
-        <f>20*M55</f>
+        <f>10*M56</f>
+        <v>10</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="1">
+        <v>5</v>
+      </c>
+      <c r="J62" s="1">
+        <v>4102</v>
+      </c>
+      <c r="K62" s="1">
         <v>20</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I62" s="1">
-        <v>5</v>
-      </c>
-      <c r="J62" s="1">
-        <v>4001</v>
-      </c>
-      <c r="K62" s="1">
-        <v>1000000</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="M62" s="1">
         <v>1</v>
@@ -3363,7 +3344,7 @@
     </row>
     <row r="63" customHeight="1" spans="3:13">
       <c r="C63" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -3372,23 +3353,23 @@
         <v>3000</v>
       </c>
       <c r="F63" s="1">
-        <f>20*M55</f>
+        <f>20*M56</f>
         <v>20</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I63" s="1">
         <v>5</v>
       </c>
       <c r="J63" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K63" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="3"/>
@@ -3400,73 +3381,73 @@
     </row>
     <row r="64" customHeight="1" spans="3:13">
       <c r="C64" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="1">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1">
-        <v>4000</v>
+        <v>4</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3000</v>
       </c>
       <c r="F64" s="1">
-        <f>20*M64</f>
-        <v>80</v>
+        <f>20*M56</f>
+        <v>20</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I64" s="1">
         <v>5</v>
       </c>
       <c r="J64" s="1">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="K64" s="1">
-        <v>5</v>
+        <v>6000000</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="3"/>
-        <v>320000</v>
+        <v>60000</v>
       </c>
       <c r="M64" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:13">
       <c r="C65" s="1">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F65" s="1">
+        <f>20*M65</f>
+        <v>80</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="1">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1">
-        <v>800</v>
-      </c>
-      <c r="F65" s="1">
-        <f>300*M64</f>
-        <v>1200</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I65" s="1">
         <v>5</v>
       </c>
       <c r="J65" s="1">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="K65" s="1">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="3"/>
-        <v>960000</v>
+        <v>320000</v>
       </c>
       <c r="M65" s="1">
         <v>4</v>
@@ -3474,7 +3455,7 @@
     </row>
     <row r="66" customHeight="1" spans="3:13">
       <c r="C66" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
@@ -3483,27 +3464,27 @@
         <v>800</v>
       </c>
       <c r="F66" s="1">
-        <f>500*M64</f>
-        <v>2000</v>
+        <f>300*M65</f>
+        <v>1200</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I66" s="1">
         <v>5</v>
       </c>
       <c r="J66" s="1">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="K66" s="1">
         <v>1000</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="3"/>
-        <v>1600000</v>
+        <v>960000</v>
       </c>
       <c r="M66" s="1">
         <v>4</v>
@@ -3511,36 +3492,36 @@
     </row>
     <row r="67" customHeight="1" spans="3:13">
       <c r="C67" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
       </c>
       <c r="E67" s="1">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="F67" s="1">
-        <f>5*M64</f>
-        <v>20</v>
+        <f>500*M65</f>
+        <v>2000</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I67" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1">
-        <v>4014</v>
+        <v>4101</v>
       </c>
       <c r="K67" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>1600000</v>
       </c>
       <c r="M67" s="1">
         <v>4</v>
@@ -3548,36 +3529,36 @@
     </row>
     <row r="68" customHeight="1" spans="3:13">
       <c r="C68" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
       </c>
       <c r="E68" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F68" s="1">
-        <f>20*M64</f>
-        <v>80</v>
+        <f>5*M65</f>
+        <v>20</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I68" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J68" s="1">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="K68" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="3"/>
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="M68" s="1">
         <v>4</v>
@@ -3585,36 +3566,36 @@
     </row>
     <row r="69" customHeight="1" spans="3:13">
       <c r="C69" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
       </c>
       <c r="E69" s="1">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F69" s="1">
-        <f>3*M64</f>
-        <v>12</v>
+        <f>20*M65</f>
+        <v>80</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I69" s="1">
         <v>5</v>
       </c>
       <c r="J69" s="1">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="3"/>
-        <v>480000</v>
+        <v>320000</v>
       </c>
       <c r="M69" s="1">
         <v>4</v>
@@ -3622,36 +3603,36 @@
     </row>
     <row r="70" customHeight="1" spans="3:13">
       <c r="C70" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
       </c>
       <c r="E70" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="F70" s="1">
-        <f>10*M64</f>
-        <v>40</v>
+        <f>3*M65</f>
+        <v>12</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I70" s="1">
         <v>5</v>
       </c>
       <c r="J70" s="1">
-        <v>4102</v>
+        <v>4011</v>
       </c>
       <c r="K70" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>480000</v>
       </c>
       <c r="M70" s="1">
         <v>4</v>
@@ -3659,7 +3640,7 @@
     </row>
     <row r="71" customHeight="1" spans="3:13">
       <c r="C71" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -3668,27 +3649,27 @@
         <v>4000</v>
       </c>
       <c r="F71" s="1">
-        <f>20*M64</f>
-        <v>80</v>
+        <f>10*M65</f>
+        <v>40</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I71" s="1">
         <v>5</v>
       </c>
       <c r="J71" s="1">
-        <v>4001</v>
+        <v>4102</v>
       </c>
       <c r="K71" s="1">
-        <v>1000000</v>
+        <v>20</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" si="3"/>
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="M71" s="1">
         <v>4</v>
@@ -3696,7 +3677,7 @@
     </row>
     <row r="72" customHeight="1" spans="3:13">
       <c r="C72" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -3705,23 +3686,23 @@
         <v>4000</v>
       </c>
       <c r="F72" s="1">
-        <f>20*M64</f>
+        <f>20*M65</f>
         <v>80</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I72" s="1">
         <v>5</v>
       </c>
       <c r="J72" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="K72" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" si="3"/>
@@ -3731,201 +3712,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="3:12">
-      <c r="C75" s="1">
+    <row r="73" customHeight="1" spans="3:13">
+      <c r="C73" s="1">
+        <v>68</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F73" s="1">
+        <f>20*M65</f>
+        <v>80</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="1">
+        <v>5</v>
+      </c>
+      <c r="J73" s="1">
+        <v>4002</v>
+      </c>
+      <c r="K73" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="3"/>
+        <v>320000</v>
+      </c>
+      <c r="M73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:12">
+      <c r="C76" s="1">
         <v>99</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" s="1">
-        <v>100</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I75" s="1">
-        <v>5</v>
-      </c>
-      <c r="J75" s="1">
-        <v>4006</v>
-      </c>
-      <c r="K75" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L75" s="1">
-        <f>E75*F75</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:12">
-      <c r="A76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1">
-        <v>20</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
-      <c r="E76" s="1">
-        <v>36000</v>
+      <c r="E76" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F76" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I76" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J76" s="1">
-        <v>19</v>
+        <v>4006</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L76" s="1">
         <f>E76*F76</f>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:12">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1">
-        <v>21</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1">
-        <v>48000</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I77" s="1">
-        <v>4</v>
-      </c>
-      <c r="J77" s="1">
-        <v>20</v>
-      </c>
-      <c r="K77" s="1">
-        <v>1</v>
-      </c>
-      <c r="L77" s="1">
-        <f>E77*F77</f>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:12">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
-        <v>22</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I78" s="1">
-        <v>4</v>
-      </c>
-      <c r="J78" s="1">
-        <v>107</v>
-      </c>
-      <c r="K78" s="1">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1">
-        <f>E78*F78</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:12">
-      <c r="A79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1">
-        <v>23</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
         <v>100000</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" s="1">
-        <v>4</v>
-      </c>
-      <c r="J79" s="1">
-        <v>108</v>
-      </c>
-      <c r="K79" s="1">
-        <v>1</v>
-      </c>
-      <c r="L79" s="1">
-        <f>E79*F79</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
